--- a/INTLINE/data/193/ABS/5676009.xlsx
+++ b/INTLINE/data/193/ABS/5676009.xlsx
@@ -12,152 +12,152 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A3530942R">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$156</definedName>
-    <definedName name="A3530942R_Data">Data1!$Y$11:$Y$156</definedName>
-    <definedName name="A3530942R_Latest">Data1!$Y$156</definedName>
-    <definedName name="A3530946X">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$156</definedName>
-    <definedName name="A3530946X_Data">Data1!$AO$11:$AO$156</definedName>
-    <definedName name="A3530946X_Latest">Data1!$AO$156</definedName>
-    <definedName name="A3530950R">Data1!$J$1:$J$10,Data1!$J$11:$J$156</definedName>
-    <definedName name="A3530950R_Data">Data1!$J$11:$J$156</definedName>
-    <definedName name="A3530950R_Latest">Data1!$J$156</definedName>
-    <definedName name="A3530954X">Data1!$Z$1:$Z$10,Data1!$Z$27:$Z$156</definedName>
-    <definedName name="A3530954X_Data">Data1!$Z$27:$Z$156</definedName>
-    <definedName name="A3530954X_Latest">Data1!$Z$156</definedName>
-    <definedName name="A3530958J">Data1!$AP$1:$AP$10,Data1!$AP$27:$AP$156</definedName>
-    <definedName name="A3530958J_Data">Data1!$AP$27:$AP$156</definedName>
-    <definedName name="A3530958J_Latest">Data1!$AP$156</definedName>
-    <definedName name="A3530962X">Data1!$K$1:$K$10,Data1!$K$11:$K$156</definedName>
-    <definedName name="A3530962X_Data">Data1!$K$11:$K$156</definedName>
-    <definedName name="A3530962X_Latest">Data1!$K$156</definedName>
-    <definedName name="A3530966J">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$156</definedName>
-    <definedName name="A3530966J_Data">Data1!$AA$11:$AA$156</definedName>
-    <definedName name="A3530966J_Latest">Data1!$AA$156</definedName>
-    <definedName name="A3530970X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$156</definedName>
-    <definedName name="A3530970X_Data">Data1!$AQ$11:$AQ$156</definedName>
-    <definedName name="A3530970X_Latest">Data1!$AQ$156</definedName>
-    <definedName name="A3530974J">Data1!$L$1:$L$10,Data1!$L$11:$L$156</definedName>
-    <definedName name="A3530974J_Data">Data1!$L$11:$L$156</definedName>
-    <definedName name="A3530974J_Latest">Data1!$L$156</definedName>
-    <definedName name="A3530978T">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$156</definedName>
-    <definedName name="A3530978T_Data">Data1!$AB$11:$AB$156</definedName>
-    <definedName name="A3530978T_Latest">Data1!$AB$156</definedName>
-    <definedName name="A3530982J">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$156</definedName>
-    <definedName name="A3530982J_Data">Data1!$AR$11:$AR$156</definedName>
-    <definedName name="A3530982J_Latest">Data1!$AR$156</definedName>
-    <definedName name="A3530986T">Data1!$M$1:$M$10,Data1!$M$11:$M$156</definedName>
-    <definedName name="A3530986T_Data">Data1!$M$11:$M$156</definedName>
-    <definedName name="A3530986T_Latest">Data1!$M$156</definedName>
-    <definedName name="A3530990J">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$156</definedName>
-    <definedName name="A3530990J_Data">Data1!$AC$11:$AC$156</definedName>
-    <definedName name="A3530990J_Latest">Data1!$AC$156</definedName>
-    <definedName name="A3530994T">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$156</definedName>
-    <definedName name="A3530994T_Data">Data1!$AS$11:$AS$156</definedName>
-    <definedName name="A3530994T_Latest">Data1!$AS$156</definedName>
-    <definedName name="A3530998A">Data1!$N$1:$N$10,Data1!$N$11:$N$156</definedName>
-    <definedName name="A3530998A_Data">Data1!$N$11:$N$156</definedName>
-    <definedName name="A3530998A_Latest">Data1!$N$156</definedName>
-    <definedName name="A3531002J">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$156</definedName>
-    <definedName name="A3531002J_Data">Data1!$AD$11:$AD$156</definedName>
-    <definedName name="A3531002J_Latest">Data1!$AD$156</definedName>
-    <definedName name="A3531006T">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$156</definedName>
-    <definedName name="A3531006T_Data">Data1!$AT$11:$AT$156</definedName>
-    <definedName name="A3531006T_Latest">Data1!$AT$156</definedName>
-    <definedName name="A3531010J">Data1!$O$1:$O$10,Data1!$O$11:$O$156</definedName>
-    <definedName name="A3531010J_Data">Data1!$O$11:$O$156</definedName>
-    <definedName name="A3531010J_Latest">Data1!$O$156</definedName>
-    <definedName name="A3531014T">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$156</definedName>
-    <definedName name="A3531014T_Data">Data1!$AE$11:$AE$156</definedName>
-    <definedName name="A3531014T_Latest">Data1!$AE$156</definedName>
-    <definedName name="A3531018A">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$156</definedName>
-    <definedName name="A3531018A_Data">Data1!$AU$11:$AU$156</definedName>
-    <definedName name="A3531018A_Latest">Data1!$AU$156</definedName>
-    <definedName name="A3531022T">Data1!$P$1:$P$10,Data1!$P$11:$P$156</definedName>
-    <definedName name="A3531022T_Data">Data1!$P$11:$P$156</definedName>
-    <definedName name="A3531022T_Latest">Data1!$P$156</definedName>
-    <definedName name="A3531026A">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$156</definedName>
-    <definedName name="A3531026A_Data">Data1!$AF$11:$AF$156</definedName>
-    <definedName name="A3531026A_Latest">Data1!$AF$156</definedName>
-    <definedName name="A3531030T">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$156</definedName>
-    <definedName name="A3531030T_Data">Data1!$AV$11:$AV$156</definedName>
-    <definedName name="A3531030T_Latest">Data1!$AV$156</definedName>
-    <definedName name="A3531604T">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$156</definedName>
-    <definedName name="A3531604T_Data">Data1!$Q$11:$Q$156</definedName>
-    <definedName name="A3531604T_Latest">Data1!$Q$156</definedName>
-    <definedName name="A3531608A">Data1!$AG$1:$AG$10,Data1!$AG$47:$AG$156</definedName>
-    <definedName name="A3531608A_Data">Data1!$AG$47:$AG$156</definedName>
-    <definedName name="A3531608A_Latest">Data1!$AG$156</definedName>
-    <definedName name="A3531612T">Data1!$AW$1:$AW$10,Data1!$AW$47:$AW$156</definedName>
-    <definedName name="A3531612T_Data">Data1!$AW$47:$AW$156</definedName>
-    <definedName name="A3531612T_Latest">Data1!$AW$156</definedName>
-    <definedName name="A3531616A">Data1!$B$1:$B$10,Data1!$B$11:$B$156</definedName>
-    <definedName name="A3531616A_Data">Data1!$B$11:$B$156</definedName>
-    <definedName name="A3531616A_Latest">Data1!$B$156</definedName>
-    <definedName name="A3531620T">Data1!$R$1:$R$10,Data1!$R$11:$R$156</definedName>
-    <definedName name="A3531620T_Data">Data1!$R$11:$R$156</definedName>
-    <definedName name="A3531620T_Latest">Data1!$R$156</definedName>
-    <definedName name="A3531624A">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$156</definedName>
-    <definedName name="A3531624A_Data">Data1!$AH$11:$AH$156</definedName>
-    <definedName name="A3531624A_Latest">Data1!$AH$156</definedName>
-    <definedName name="A3531628K">Data1!$C$1:$C$10,Data1!$C$11:$C$156</definedName>
-    <definedName name="A3531628K_Data">Data1!$C$11:$C$156</definedName>
-    <definedName name="A3531628K_Latest">Data1!$C$156</definedName>
-    <definedName name="A3531632A">Data1!$S$1:$S$10,Data1!$S$11:$S$156</definedName>
-    <definedName name="A3531632A_Data">Data1!$S$11:$S$156</definedName>
-    <definedName name="A3531632A_Latest">Data1!$S$156</definedName>
-    <definedName name="A3531636K">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$156</definedName>
-    <definedName name="A3531636K_Data">Data1!$AI$11:$AI$156</definedName>
-    <definedName name="A3531636K_Latest">Data1!$AI$156</definedName>
-    <definedName name="A3531640A">Data1!$D$1:$D$10,Data1!$D$11:$D$156</definedName>
-    <definedName name="A3531640A_Data">Data1!$D$11:$D$156</definedName>
-    <definedName name="A3531640A_Latest">Data1!$D$156</definedName>
-    <definedName name="A3531644K">Data1!$T$1:$T$10,Data1!$T$11:$T$156</definedName>
-    <definedName name="A3531644K_Data">Data1!$T$11:$T$156</definedName>
-    <definedName name="A3531644K_Latest">Data1!$T$156</definedName>
-    <definedName name="A3531648V">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$156</definedName>
-    <definedName name="A3531648V_Data">Data1!$AJ$11:$AJ$156</definedName>
-    <definedName name="A3531648V_Latest">Data1!$AJ$156</definedName>
-    <definedName name="A3531652K">Data1!$E$1:$E$10,Data1!$E$11:$E$156</definedName>
-    <definedName name="A3531652K_Data">Data1!$E$11:$E$156</definedName>
-    <definedName name="A3531652K_Latest">Data1!$E$156</definedName>
-    <definedName name="A3531656V">Data1!$U$1:$U$10,Data1!$U$11:$U$156</definedName>
-    <definedName name="A3531656V_Data">Data1!$U$11:$U$156</definedName>
-    <definedName name="A3531656V_Latest">Data1!$U$156</definedName>
-    <definedName name="A3531660K">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$156</definedName>
-    <definedName name="A3531660K_Data">Data1!$AK$11:$AK$156</definedName>
-    <definedName name="A3531660K_Latest">Data1!$AK$156</definedName>
-    <definedName name="A3531664V">Data1!$F$1:$F$10,Data1!$F$11:$F$156</definedName>
-    <definedName name="A3531664V_Data">Data1!$F$11:$F$156</definedName>
-    <definedName name="A3531664V_Latest">Data1!$F$156</definedName>
-    <definedName name="A3531668C">Data1!$V$1:$V$10,Data1!$V$11:$V$156</definedName>
-    <definedName name="A3531668C_Data">Data1!$V$11:$V$156</definedName>
-    <definedName name="A3531668C_Latest">Data1!$V$156</definedName>
-    <definedName name="A3531672V">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$156</definedName>
-    <definedName name="A3531672V_Data">Data1!$AL$11:$AL$156</definedName>
-    <definedName name="A3531672V_Latest">Data1!$AL$156</definedName>
-    <definedName name="A3531676C">Data1!$G$1:$G$10,Data1!$G$11:$G$156</definedName>
-    <definedName name="A3531676C_Data">Data1!$G$11:$G$156</definedName>
-    <definedName name="A3531676C_Latest">Data1!$G$156</definedName>
-    <definedName name="A3531680V">Data1!$W$1:$W$10,Data1!$W$47:$W$156</definedName>
-    <definedName name="A3531680V_Data">Data1!$W$47:$W$156</definedName>
-    <definedName name="A3531680V_Latest">Data1!$W$156</definedName>
-    <definedName name="A3531684C">Data1!$AM$1:$AM$10,Data1!$AM$47:$AM$156</definedName>
-    <definedName name="A3531684C_Data">Data1!$AM$47:$AM$156</definedName>
-    <definedName name="A3531684C_Latest">Data1!$AM$156</definedName>
-    <definedName name="A3531688L">Data1!$H$1:$H$10,Data1!$H$11:$H$156</definedName>
-    <definedName name="A3531688L_Data">Data1!$H$11:$H$156</definedName>
-    <definedName name="A3531688L_Latest">Data1!$H$156</definedName>
-    <definedName name="A3531692C">Data1!$X$1:$X$10,Data1!$X$11:$X$156</definedName>
-    <definedName name="A3531692C_Data">Data1!$X$11:$X$156</definedName>
-    <definedName name="A3531692C_Latest">Data1!$X$156</definedName>
-    <definedName name="A3531696L">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$156</definedName>
-    <definedName name="A3531696L_Data">Data1!$AN$11:$AN$156</definedName>
-    <definedName name="A3531696L_Latest">Data1!$AN$156</definedName>
-    <definedName name="A3531700T">Data1!$I$1:$I$10,Data1!$I$11:$I$156</definedName>
-    <definedName name="A3531700T_Data">Data1!$I$11:$I$156</definedName>
-    <definedName name="A3531700T_Latest">Data1!$I$156</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$156</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$156</definedName>
+    <definedName name="A3530942R">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$157</definedName>
+    <definedName name="A3530942R_Data">Data1!$Y$11:$Y$157</definedName>
+    <definedName name="A3530942R_Latest">Data1!$Y$157</definedName>
+    <definedName name="A3530946X">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$157</definedName>
+    <definedName name="A3530946X_Data">Data1!$AO$11:$AO$157</definedName>
+    <definedName name="A3530946X_Latest">Data1!$AO$157</definedName>
+    <definedName name="A3530950R">Data1!$J$1:$J$10,Data1!$J$11:$J$157</definedName>
+    <definedName name="A3530950R_Data">Data1!$J$11:$J$157</definedName>
+    <definedName name="A3530950R_Latest">Data1!$J$157</definedName>
+    <definedName name="A3530954X">Data1!$Z$1:$Z$10,Data1!$Z$27:$Z$157</definedName>
+    <definedName name="A3530954X_Data">Data1!$Z$27:$Z$157</definedName>
+    <definedName name="A3530954X_Latest">Data1!$Z$157</definedName>
+    <definedName name="A3530958J">Data1!$AP$1:$AP$10,Data1!$AP$27:$AP$157</definedName>
+    <definedName name="A3530958J_Data">Data1!$AP$27:$AP$157</definedName>
+    <definedName name="A3530958J_Latest">Data1!$AP$157</definedName>
+    <definedName name="A3530962X">Data1!$K$1:$K$10,Data1!$K$11:$K$157</definedName>
+    <definedName name="A3530962X_Data">Data1!$K$11:$K$157</definedName>
+    <definedName name="A3530962X_Latest">Data1!$K$157</definedName>
+    <definedName name="A3530966J">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$157</definedName>
+    <definedName name="A3530966J_Data">Data1!$AA$11:$AA$157</definedName>
+    <definedName name="A3530966J_Latest">Data1!$AA$157</definedName>
+    <definedName name="A3530970X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$157</definedName>
+    <definedName name="A3530970X_Data">Data1!$AQ$11:$AQ$157</definedName>
+    <definedName name="A3530970X_Latest">Data1!$AQ$157</definedName>
+    <definedName name="A3530974J">Data1!$L$1:$L$10,Data1!$L$11:$L$157</definedName>
+    <definedName name="A3530974J_Data">Data1!$L$11:$L$157</definedName>
+    <definedName name="A3530974J_Latest">Data1!$L$157</definedName>
+    <definedName name="A3530978T">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$157</definedName>
+    <definedName name="A3530978T_Data">Data1!$AB$11:$AB$157</definedName>
+    <definedName name="A3530978T_Latest">Data1!$AB$157</definedName>
+    <definedName name="A3530982J">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$157</definedName>
+    <definedName name="A3530982J_Data">Data1!$AR$11:$AR$157</definedName>
+    <definedName name="A3530982J_Latest">Data1!$AR$157</definedName>
+    <definedName name="A3530986T">Data1!$M$1:$M$10,Data1!$M$11:$M$157</definedName>
+    <definedName name="A3530986T_Data">Data1!$M$11:$M$157</definedName>
+    <definedName name="A3530986T_Latest">Data1!$M$157</definedName>
+    <definedName name="A3530990J">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$157</definedName>
+    <definedName name="A3530990J_Data">Data1!$AC$11:$AC$157</definedName>
+    <definedName name="A3530990J_Latest">Data1!$AC$157</definedName>
+    <definedName name="A3530994T">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$157</definedName>
+    <definedName name="A3530994T_Data">Data1!$AS$11:$AS$157</definedName>
+    <definedName name="A3530994T_Latest">Data1!$AS$157</definedName>
+    <definedName name="A3530998A">Data1!$N$1:$N$10,Data1!$N$11:$N$157</definedName>
+    <definedName name="A3530998A_Data">Data1!$N$11:$N$157</definedName>
+    <definedName name="A3530998A_Latest">Data1!$N$157</definedName>
+    <definedName name="A3531002J">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$157</definedName>
+    <definedName name="A3531002J_Data">Data1!$AD$11:$AD$157</definedName>
+    <definedName name="A3531002J_Latest">Data1!$AD$157</definedName>
+    <definedName name="A3531006T">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$157</definedName>
+    <definedName name="A3531006T_Data">Data1!$AT$11:$AT$157</definedName>
+    <definedName name="A3531006T_Latest">Data1!$AT$157</definedName>
+    <definedName name="A3531010J">Data1!$O$1:$O$10,Data1!$O$11:$O$157</definedName>
+    <definedName name="A3531010J_Data">Data1!$O$11:$O$157</definedName>
+    <definedName name="A3531010J_Latest">Data1!$O$157</definedName>
+    <definedName name="A3531014T">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$157</definedName>
+    <definedName name="A3531014T_Data">Data1!$AE$11:$AE$157</definedName>
+    <definedName name="A3531014T_Latest">Data1!$AE$157</definedName>
+    <definedName name="A3531018A">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$157</definedName>
+    <definedName name="A3531018A_Data">Data1!$AU$11:$AU$157</definedName>
+    <definedName name="A3531018A_Latest">Data1!$AU$157</definedName>
+    <definedName name="A3531022T">Data1!$P$1:$P$10,Data1!$P$11:$P$157</definedName>
+    <definedName name="A3531022T_Data">Data1!$P$11:$P$157</definedName>
+    <definedName name="A3531022T_Latest">Data1!$P$157</definedName>
+    <definedName name="A3531026A">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$157</definedName>
+    <definedName name="A3531026A_Data">Data1!$AF$11:$AF$157</definedName>
+    <definedName name="A3531026A_Latest">Data1!$AF$157</definedName>
+    <definedName name="A3531030T">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$157</definedName>
+    <definedName name="A3531030T_Data">Data1!$AV$11:$AV$157</definedName>
+    <definedName name="A3531030T_Latest">Data1!$AV$157</definedName>
+    <definedName name="A3531604T">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$157</definedName>
+    <definedName name="A3531604T_Data">Data1!$Q$11:$Q$157</definedName>
+    <definedName name="A3531604T_Latest">Data1!$Q$157</definedName>
+    <definedName name="A3531608A">Data1!$AG$1:$AG$10,Data1!$AG$47:$AG$157</definedName>
+    <definedName name="A3531608A_Data">Data1!$AG$47:$AG$157</definedName>
+    <definedName name="A3531608A_Latest">Data1!$AG$157</definedName>
+    <definedName name="A3531612T">Data1!$AW$1:$AW$10,Data1!$AW$47:$AW$157</definedName>
+    <definedName name="A3531612T_Data">Data1!$AW$47:$AW$157</definedName>
+    <definedName name="A3531612T_Latest">Data1!$AW$157</definedName>
+    <definedName name="A3531616A">Data1!$B$1:$B$10,Data1!$B$11:$B$157</definedName>
+    <definedName name="A3531616A_Data">Data1!$B$11:$B$157</definedName>
+    <definedName name="A3531616A_Latest">Data1!$B$157</definedName>
+    <definedName name="A3531620T">Data1!$R$1:$R$10,Data1!$R$11:$R$157</definedName>
+    <definedName name="A3531620T_Data">Data1!$R$11:$R$157</definedName>
+    <definedName name="A3531620T_Latest">Data1!$R$157</definedName>
+    <definedName name="A3531624A">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$157</definedName>
+    <definedName name="A3531624A_Data">Data1!$AH$11:$AH$157</definedName>
+    <definedName name="A3531624A_Latest">Data1!$AH$157</definedName>
+    <definedName name="A3531628K">Data1!$C$1:$C$10,Data1!$C$11:$C$157</definedName>
+    <definedName name="A3531628K_Data">Data1!$C$11:$C$157</definedName>
+    <definedName name="A3531628K_Latest">Data1!$C$157</definedName>
+    <definedName name="A3531632A">Data1!$S$1:$S$10,Data1!$S$11:$S$157</definedName>
+    <definedName name="A3531632A_Data">Data1!$S$11:$S$157</definedName>
+    <definedName name="A3531632A_Latest">Data1!$S$157</definedName>
+    <definedName name="A3531636K">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$157</definedName>
+    <definedName name="A3531636K_Data">Data1!$AI$11:$AI$157</definedName>
+    <definedName name="A3531636K_Latest">Data1!$AI$157</definedName>
+    <definedName name="A3531640A">Data1!$D$1:$D$10,Data1!$D$11:$D$157</definedName>
+    <definedName name="A3531640A_Data">Data1!$D$11:$D$157</definedName>
+    <definedName name="A3531640A_Latest">Data1!$D$157</definedName>
+    <definedName name="A3531644K">Data1!$T$1:$T$10,Data1!$T$11:$T$157</definedName>
+    <definedName name="A3531644K_Data">Data1!$T$11:$T$157</definedName>
+    <definedName name="A3531644K_Latest">Data1!$T$157</definedName>
+    <definedName name="A3531648V">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$157</definedName>
+    <definedName name="A3531648V_Data">Data1!$AJ$11:$AJ$157</definedName>
+    <definedName name="A3531648V_Latest">Data1!$AJ$157</definedName>
+    <definedName name="A3531652K">Data1!$E$1:$E$10,Data1!$E$11:$E$157</definedName>
+    <definedName name="A3531652K_Data">Data1!$E$11:$E$157</definedName>
+    <definedName name="A3531652K_Latest">Data1!$E$157</definedName>
+    <definedName name="A3531656V">Data1!$U$1:$U$10,Data1!$U$11:$U$157</definedName>
+    <definedName name="A3531656V_Data">Data1!$U$11:$U$157</definedName>
+    <definedName name="A3531656V_Latest">Data1!$U$157</definedName>
+    <definedName name="A3531660K">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$157</definedName>
+    <definedName name="A3531660K_Data">Data1!$AK$11:$AK$157</definedName>
+    <definedName name="A3531660K_Latest">Data1!$AK$157</definedName>
+    <definedName name="A3531664V">Data1!$F$1:$F$10,Data1!$F$11:$F$157</definedName>
+    <definedName name="A3531664V_Data">Data1!$F$11:$F$157</definedName>
+    <definedName name="A3531664V_Latest">Data1!$F$157</definedName>
+    <definedName name="A3531668C">Data1!$V$1:$V$10,Data1!$V$11:$V$157</definedName>
+    <definedName name="A3531668C_Data">Data1!$V$11:$V$157</definedName>
+    <definedName name="A3531668C_Latest">Data1!$V$157</definedName>
+    <definedName name="A3531672V">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$157</definedName>
+    <definedName name="A3531672V_Data">Data1!$AL$11:$AL$157</definedName>
+    <definedName name="A3531672V_Latest">Data1!$AL$157</definedName>
+    <definedName name="A3531676C">Data1!$G$1:$G$10,Data1!$G$11:$G$157</definedName>
+    <definedName name="A3531676C_Data">Data1!$G$11:$G$157</definedName>
+    <definedName name="A3531676C_Latest">Data1!$G$157</definedName>
+    <definedName name="A3531680V">Data1!$W$1:$W$10,Data1!$W$47:$W$157</definedName>
+    <definedName name="A3531680V_Data">Data1!$W$47:$W$157</definedName>
+    <definedName name="A3531680V_Latest">Data1!$W$157</definedName>
+    <definedName name="A3531684C">Data1!$AM$1:$AM$10,Data1!$AM$47:$AM$157</definedName>
+    <definedName name="A3531684C_Data">Data1!$AM$47:$AM$157</definedName>
+    <definedName name="A3531684C_Latest">Data1!$AM$157</definedName>
+    <definedName name="A3531688L">Data1!$H$1:$H$10,Data1!$H$11:$H$157</definedName>
+    <definedName name="A3531688L_Data">Data1!$H$11:$H$157</definedName>
+    <definedName name="A3531688L_Latest">Data1!$H$157</definedName>
+    <definedName name="A3531692C">Data1!$X$1:$X$10,Data1!$X$11:$X$157</definedName>
+    <definedName name="A3531692C_Data">Data1!$X$11:$X$157</definedName>
+    <definedName name="A3531692C_Latest">Data1!$X$157</definedName>
+    <definedName name="A3531696L">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$157</definedName>
+    <definedName name="A3531696L_Data">Data1!$AN$11:$AN$157</definedName>
+    <definedName name="A3531696L_Latest">Data1!$AN$157</definedName>
+    <definedName name="A3531700T">Data1!$I$1:$I$10,Data1!$I$11:$I$157</definedName>
+    <definedName name="A3531700T_Data">Data1!$I$11:$I$157</definedName>
+    <definedName name="A3531700T_Latest">Data1!$I$157</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$157</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$157</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -7111,6 +7111,305 @@
       </text>
     </comment>
     <comment ref="AW156" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error between 25% and 50% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error between 25% and 50% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error greater than 50% and is considered too unreliable for general use</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>estimate has a relative standard error of 10% to less than 25% and should be used with caution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW157" authorId="0">
       <text>
         <r>
           <rPr>
@@ -8091,22 +8390,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9">
         <v>31291</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>25</v>
@@ -8123,22 +8422,22 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F13" s="9">
         <v>31291</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>25</v>
@@ -8155,22 +8454,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F14" s="9">
         <v>31291</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>25</v>
@@ -8187,22 +8486,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F15" s="9">
         <v>31291</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>25</v>
@@ -8219,22 +8518,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F16" s="9">
         <v>31291</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>25</v>
@@ -8251,22 +8550,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F17" s="9">
         <v>31291</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>25</v>
@@ -8283,22 +8582,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F18" s="9">
         <v>31291</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>25</v>
@@ -8315,22 +8614,22 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F19" s="9">
         <v>31291</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>25</v>
@@ -8347,22 +8646,22 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F20" s="9">
         <v>31291</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>25</v>
@@ -8379,22 +8678,22 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F21" s="9">
         <v>31291</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>25</v>
@@ -8411,22 +8710,22 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F22" s="9">
         <v>31291</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>25</v>
@@ -8443,22 +8742,22 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F23" s="9">
         <v>31291</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>25</v>
@@ -8475,22 +8774,22 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F24" s="9">
         <v>31291</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>25</v>
@@ -8507,22 +8806,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F25" s="9">
         <v>31291</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>25</v>
@@ -8539,22 +8838,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F26" s="9">
         <v>31291</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>25</v>
@@ -8571,22 +8870,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F27" s="9">
         <v>31291</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>25</v>
@@ -8603,22 +8902,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F28" s="9">
         <v>31291</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>25</v>
@@ -8635,22 +8934,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F29" s="9">
         <v>31291</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>25</v>
@@ -8667,22 +8966,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F30" s="9">
         <v>31291</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>25</v>
@@ -8699,22 +8998,22 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F31" s="9">
-        <v>31291</v>
+        <v>32752</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>25</v>
@@ -8731,22 +9030,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F32" s="9">
-        <v>31291</v>
+        <v>32752</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>25</v>
@@ -8763,22 +9062,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F33" s="9">
-        <v>34578</v>
+        <v>31291</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>25</v>
@@ -8795,22 +9094,22 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F34" s="9">
         <v>31291</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>25</v>
@@ -8827,22 +9126,22 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F35" s="9">
         <v>31291</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>25</v>
@@ -8859,22 +9158,22 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F36" s="9">
-        <v>32752</v>
+        <v>31291</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>25</v>
@@ -8891,22 +9190,22 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F37" s="9">
         <v>31291</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>25</v>
@@ -8923,22 +9222,22 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F38" s="9">
         <v>31291</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>25</v>
@@ -8955,22 +9254,22 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F39" s="9">
         <v>31291</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>25</v>
@@ -8987,22 +9286,22 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F40" s="9">
         <v>31291</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>25</v>
@@ -9019,22 +9318,22 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F41" s="9">
         <v>31291</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>25</v>
@@ -9051,22 +9350,22 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F42" s="9">
         <v>31291</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>25</v>
@@ -9083,22 +9382,22 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F43" s="9">
-        <v>34578</v>
+        <v>31291</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>25</v>
@@ -9115,22 +9414,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F44" s="9">
         <v>31291</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>25</v>
@@ -9147,22 +9446,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F45" s="9">
         <v>31291</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>25</v>
@@ -9179,22 +9478,22 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F46" s="9">
         <v>31291</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>25</v>
@@ -9211,22 +9510,22 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F47" s="9">
         <v>31291</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>25</v>
@@ -9243,22 +9542,22 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F48" s="9">
         <v>31291</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>25</v>
@@ -9278,19 +9577,19 @@
         <v>5</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F49" s="9">
         <v>34578</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>25</v>
@@ -9307,22 +9606,22 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" s="9">
-        <v>31291</v>
+        <v>34578</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>25</v>
@@ -9339,22 +9638,22 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F51" s="9">
         <v>31291</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>25</v>
@@ -9371,22 +9670,22 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F52" s="9">
-        <v>32752</v>
+        <v>34578</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>25</v>
@@ -9403,22 +9702,22 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F53" s="9">
-        <v>31291</v>
+        <v>34578</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>25</v>
@@ -9435,22 +9734,22 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F54" s="9">
         <v>31291</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>25</v>
@@ -9467,22 +9766,22 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F55" s="9">
         <v>31291</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>25</v>
@@ -9499,22 +9798,22 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F56" s="9">
         <v>31291</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>25</v>
@@ -9531,22 +9830,22 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F57" s="9">
         <v>31291</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>25</v>
@@ -9563,22 +9862,22 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F58" s="9">
         <v>31291</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>25</v>
@@ -9595,22 +9894,22 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F59" s="9">
-        <v>34578</v>
+        <v>31291</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>25</v>
@@ -9631,59 +9930,62 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A12:XFD59">
+    <sortCondition ref="A12"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
-    <hyperlink ref="E12" location="A3531616A" display="A3531616A"/>
-    <hyperlink ref="E13" location="A3531628K" display="A3531628K"/>
-    <hyperlink ref="E14" location="A3531640A" display="A3531640A"/>
-    <hyperlink ref="E15" location="A3531652K" display="A3531652K"/>
-    <hyperlink ref="E16" location="A3531664V" display="A3531664V"/>
-    <hyperlink ref="E17" location="A3531676C" display="A3531676C"/>
-    <hyperlink ref="E18" location="A3531688L" display="A3531688L"/>
-    <hyperlink ref="E19" location="A3531700T" display="A3531700T"/>
-    <hyperlink ref="E20" location="A3530950R" display="A3530950R"/>
-    <hyperlink ref="E21" location="A3530962X" display="A3530962X"/>
-    <hyperlink ref="E22" location="A3530974J" display="A3530974J"/>
-    <hyperlink ref="E23" location="A3530986T" display="A3530986T"/>
-    <hyperlink ref="E24" location="A3530998A" display="A3530998A"/>
-    <hyperlink ref="E25" location="A3531010J" display="A3531010J"/>
-    <hyperlink ref="E26" location="A3531022T" display="A3531022T"/>
-    <hyperlink ref="E27" location="A3531604T" display="A3531604T"/>
-    <hyperlink ref="E28" location="A3531620T" display="A3531620T"/>
-    <hyperlink ref="E29" location="A3531632A" display="A3531632A"/>
-    <hyperlink ref="E30" location="A3531644K" display="A3531644K"/>
-    <hyperlink ref="E31" location="A3531656V" display="A3531656V"/>
-    <hyperlink ref="E32" location="A3531668C" display="A3531668C"/>
-    <hyperlink ref="E33" location="A3531680V" display="A3531680V"/>
-    <hyperlink ref="E34" location="A3531692C" display="A3531692C"/>
-    <hyperlink ref="E35" location="A3530942R" display="A3530942R"/>
-    <hyperlink ref="E36" location="A3530954X" display="A3530954X"/>
-    <hyperlink ref="E37" location="A3530966J" display="A3530966J"/>
-    <hyperlink ref="E38" location="A3530978T" display="A3530978T"/>
-    <hyperlink ref="E39" location="A3530990J" display="A3530990J"/>
-    <hyperlink ref="E40" location="A3531002J" display="A3531002J"/>
-    <hyperlink ref="E41" location="A3531014T" display="A3531014T"/>
-    <hyperlink ref="E42" location="A3531026A" display="A3531026A"/>
-    <hyperlink ref="E43" location="A3531608A" display="A3531608A"/>
-    <hyperlink ref="E44" location="A3531624A" display="A3531624A"/>
-    <hyperlink ref="E45" location="A3531636K" display="A3531636K"/>
-    <hyperlink ref="E46" location="A3531648V" display="A3531648V"/>
-    <hyperlink ref="E47" location="A3531660K" display="A3531660K"/>
-    <hyperlink ref="E48" location="A3531672V" display="A3531672V"/>
-    <hyperlink ref="E49" location="A3531684C" display="A3531684C"/>
-    <hyperlink ref="E50" location="A3531696L" display="A3531696L"/>
-    <hyperlink ref="E51" location="A3530946X" display="A3530946X"/>
-    <hyperlink ref="E52" location="A3530958J" display="A3530958J"/>
-    <hyperlink ref="E53" location="A3530970X" display="A3530970X"/>
-    <hyperlink ref="E54" location="A3530982J" display="A3530982J"/>
-    <hyperlink ref="E55" location="A3530994T" display="A3530994T"/>
-    <hyperlink ref="E56" location="A3531006T" display="A3531006T"/>
-    <hyperlink ref="E57" location="A3531018A" display="A3531018A"/>
-    <hyperlink ref="E58" location="A3531030T" display="A3531030T"/>
-    <hyperlink ref="E59" location="A3531612T" display="A3531612T"/>
+    <hyperlink ref="E36" location="A3531616A" display="A3531616A"/>
+    <hyperlink ref="E33" location="A3531628K" display="A3531628K"/>
+    <hyperlink ref="E24" location="A3531640A" display="A3531640A"/>
+    <hyperlink ref="E21" location="A3531652K" display="A3531652K"/>
+    <hyperlink ref="E57" location="A3531664V" display="A3531664V"/>
+    <hyperlink ref="E48" location="A3531676C" display="A3531676C"/>
+    <hyperlink ref="E12" location="A3531688L" display="A3531688L"/>
+    <hyperlink ref="E54" location="A3531700T" display="A3531700T"/>
+    <hyperlink ref="E30" location="A3530950R" display="A3530950R"/>
+    <hyperlink ref="E27" location="A3530962X" display="A3530962X"/>
+    <hyperlink ref="E45" location="A3530974J" display="A3530974J"/>
+    <hyperlink ref="E42" location="A3530986T" display="A3530986T"/>
+    <hyperlink ref="E15" location="A3530998A" display="A3530998A"/>
+    <hyperlink ref="E18" location="A3531010J" display="A3531010J"/>
+    <hyperlink ref="E39" location="A3531022T" display="A3531022T"/>
+    <hyperlink ref="E51" location="A3531604T" display="A3531604T"/>
+    <hyperlink ref="E37" location="A3531620T" display="A3531620T"/>
+    <hyperlink ref="E34" location="A3531632A" display="A3531632A"/>
+    <hyperlink ref="E25" location="A3531644K" display="A3531644K"/>
+    <hyperlink ref="E22" location="A3531656V" display="A3531656V"/>
+    <hyperlink ref="E58" location="A3531668C" display="A3531668C"/>
+    <hyperlink ref="E49" location="A3531680V" display="A3531680V"/>
+    <hyperlink ref="E13" location="A3531692C" display="A3531692C"/>
+    <hyperlink ref="E55" location="A3530942R" display="A3530942R"/>
+    <hyperlink ref="E31" location="A3530954X" display="A3530954X"/>
+    <hyperlink ref="E28" location="A3530966J" display="A3530966J"/>
+    <hyperlink ref="E46" location="A3530978T" display="A3530978T"/>
+    <hyperlink ref="E43" location="A3530990J" display="A3530990J"/>
+    <hyperlink ref="E16" location="A3531002J" display="A3531002J"/>
+    <hyperlink ref="E19" location="A3531014T" display="A3531014T"/>
+    <hyperlink ref="E40" location="A3531026A" display="A3531026A"/>
+    <hyperlink ref="E52" location="A3531608A" display="A3531608A"/>
+    <hyperlink ref="E38" location="A3531624A" display="A3531624A"/>
+    <hyperlink ref="E35" location="A3531636K" display="A3531636K"/>
+    <hyperlink ref="E26" location="A3531648V" display="A3531648V"/>
+    <hyperlink ref="E23" location="A3531660K" display="A3531660K"/>
+    <hyperlink ref="E59" location="A3531672V" display="A3531672V"/>
+    <hyperlink ref="E50" location="A3531684C" display="A3531684C"/>
+    <hyperlink ref="E14" location="A3531696L" display="A3531696L"/>
+    <hyperlink ref="E56" location="A3530946X" display="A3530946X"/>
+    <hyperlink ref="E32" location="A3530958J" display="A3530958J"/>
+    <hyperlink ref="E29" location="A3530970X" display="A3530970X"/>
+    <hyperlink ref="E47" location="A3530982J" display="A3530982J"/>
+    <hyperlink ref="E44" location="A3530994T" display="A3530994T"/>
+    <hyperlink ref="E17" location="A3531006T" display="A3531006T"/>
+    <hyperlink ref="E20" location="A3531018A" display="A3531018A"/>
+    <hyperlink ref="E41" location="A3531030T" display="A3531030T"/>
+    <hyperlink ref="E53" location="A3531612T" display="A3531612T"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9693,7 +9995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW156"/>
+  <dimension ref="A1:AW157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -10752,148 +11054,148 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
@@ -10901,148 +11203,148 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AP9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AQ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AR9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AS9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AT9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AU9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AV9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AW9" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
@@ -18351,7 +18653,7 @@
         <v>207</v>
       </c>
       <c r="AC62" s="8">
-        <v>-390</v>
+        <v>-389</v>
       </c>
       <c r="AD62" s="8">
         <v>-70</v>
@@ -18649,7 +18951,7 @@
         <v>247</v>
       </c>
       <c r="AC64" s="8">
-        <v>-361</v>
+        <v>-362</v>
       </c>
       <c r="AD64" s="8">
         <v>-57</v>
@@ -20139,7 +20441,7 @@
         <v>1172</v>
       </c>
       <c r="AC74" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD74" s="8">
         <v>106</v>
@@ -21033,7 +21335,7 @@
         <v>1571</v>
       </c>
       <c r="AC80" s="8">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="AD80" s="8">
         <v>98</v>
@@ -21093,7 +21395,7 @@
         <v>398</v>
       </c>
       <c r="AW80" s="8">
-        <v>23361</v>
+        <v>23360</v>
       </c>
     </row>
     <row r="81" spans="1:49" x14ac:dyDescent="0.2">
@@ -21343,7 +21645,7 @@
         <v>415</v>
       </c>
       <c r="AG82" s="8">
-        <v>30706</v>
+        <v>30707</v>
       </c>
       <c r="AH82" s="8">
         <v>4017</v>
@@ -21379,7 +21681,7 @@
         <v>1500</v>
       </c>
       <c r="AS82" s="8">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AT82" s="8">
         <v>152</v>
@@ -21689,7 +21991,7 @@
         <v>472</v>
       </c>
       <c r="AW84" s="8">
-        <v>27518</v>
+        <v>27517</v>
       </c>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.2">
@@ -21939,7 +22241,7 @@
         <v>487</v>
       </c>
       <c r="AG86" s="8">
-        <v>22104</v>
+        <v>22105</v>
       </c>
       <c r="AH86" s="8">
         <v>4560</v>
@@ -22228,7 +22530,7 @@
         <v>667</v>
       </c>
       <c r="AD88" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE88" s="8">
         <v>526</v>
@@ -22237,7 +22539,7 @@
         <v>496</v>
       </c>
       <c r="AG88" s="8">
-        <v>40355</v>
+        <v>40354</v>
       </c>
       <c r="AH88" s="8">
         <v>3711</v>
@@ -22523,7 +22825,7 @@
         <v>1509</v>
       </c>
       <c r="AC90" s="8">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AD90" s="8">
         <v>218</v>
@@ -22535,7 +22837,7 @@
         <v>553</v>
       </c>
       <c r="AG90" s="8">
-        <v>34644</v>
+        <v>34645</v>
       </c>
       <c r="AH90" s="8">
         <v>7714</v>
@@ -22672,7 +22974,7 @@
         <v>1552</v>
       </c>
       <c r="AC91" s="8">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD91" s="8">
         <v>140</v>
@@ -22821,7 +23123,7 @@
         <v>1465</v>
       </c>
       <c r="AC92" s="8">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AD92" s="8">
         <v>276</v>
@@ -22833,7 +23135,7 @@
         <v>549</v>
       </c>
       <c r="AG92" s="8">
-        <v>36059</v>
+        <v>36058</v>
       </c>
       <c r="AH92" s="8">
         <v>8294</v>
@@ -23110,7 +23412,7 @@
         <v>1303</v>
       </c>
       <c r="Z94" s="8">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AA94" s="8">
         <v>7130</v>
@@ -23119,7 +23421,7 @@
         <v>1951</v>
       </c>
       <c r="AC94" s="8">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AD94" s="8">
         <v>130</v>
@@ -23131,7 +23433,7 @@
         <v>575</v>
       </c>
       <c r="AG94" s="8">
-        <v>37779</v>
+        <v>37780</v>
       </c>
       <c r="AH94" s="8">
         <v>10448</v>
@@ -23316,7 +23618,7 @@
         <v>1827</v>
       </c>
       <c r="AS95" s="8">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT95" s="8">
         <v>140</v>
@@ -23399,7 +23701,7 @@
         <v>3535</v>
       </c>
       <c r="W96" s="8">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="X96" s="8">
         <v>640</v>
@@ -23417,7 +23719,7 @@
         <v>1848</v>
       </c>
       <c r="AC96" s="8">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AD96" s="8">
         <v>158</v>
@@ -23429,7 +23731,7 @@
         <v>565</v>
       </c>
       <c r="AG96" s="8">
-        <v>37539</v>
+        <v>37537</v>
       </c>
       <c r="AH96" s="8">
         <v>10250</v>
@@ -23626,7 +23928,7 @@
         <v>580</v>
       </c>
       <c r="AW97" s="8">
-        <v>40125</v>
+        <v>40126</v>
       </c>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.2">
@@ -23715,7 +24017,7 @@
         <v>2034</v>
       </c>
       <c r="AC98" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AD98" s="8">
         <v>281</v>
@@ -23727,7 +24029,7 @@
         <v>587</v>
       </c>
       <c r="AG98" s="8">
-        <v>40975</v>
+        <v>40977</v>
       </c>
       <c r="AH98" s="8">
         <v>9114</v>
@@ -23775,7 +24077,7 @@
         <v>601</v>
       </c>
       <c r="AW98" s="8">
-        <v>39250</v>
+        <v>39251</v>
       </c>
     </row>
     <row r="99" spans="1:49" x14ac:dyDescent="0.2">
@@ -23864,7 +24166,7 @@
         <v>1602</v>
       </c>
       <c r="AC99" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD99" s="8">
         <v>233</v>
@@ -23876,7 +24178,7 @@
         <v>618</v>
       </c>
       <c r="AG99" s="8">
-        <v>39557</v>
+        <v>39556</v>
       </c>
       <c r="AH99" s="8">
         <v>9091</v>
@@ -23924,7 +24226,7 @@
         <v>613</v>
       </c>
       <c r="AW99" s="8">
-        <v>37600</v>
+        <v>37599</v>
       </c>
     </row>
     <row r="100" spans="1:49" x14ac:dyDescent="0.2">
@@ -24013,7 +24315,7 @@
         <v>1933</v>
       </c>
       <c r="AC100" s="8">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD100" s="8">
         <v>243</v>
@@ -24025,7 +24327,7 @@
         <v>648</v>
       </c>
       <c r="AG100" s="8">
-        <v>31294</v>
+        <v>31292</v>
       </c>
       <c r="AH100" s="8">
         <v>8854</v>
@@ -24162,7 +24464,7 @@
         <v>2053</v>
       </c>
       <c r="AC101" s="8">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AD101" s="8">
         <v>332</v>
@@ -24174,7 +24476,7 @@
         <v>609</v>
       </c>
       <c r="AG101" s="8">
-        <v>42267</v>
+        <v>42268</v>
       </c>
       <c r="AH101" s="8">
         <v>8368</v>
@@ -24210,7 +24512,7 @@
         <v>1982</v>
       </c>
       <c r="AS101" s="8">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AT101" s="8">
         <v>303</v>
@@ -24222,7 +24524,7 @@
         <v>655</v>
       </c>
       <c r="AW101" s="8">
-        <v>40033</v>
+        <v>40034</v>
       </c>
     </row>
     <row r="102" spans="1:49" x14ac:dyDescent="0.2">
@@ -24290,7 +24592,7 @@
         <v>3070</v>
       </c>
       <c r="V102" s="8">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="W102" s="8">
         <v>2477</v>
@@ -24311,10 +24613,10 @@
         <v>1958</v>
       </c>
       <c r="AC102" s="8">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="AD102" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE102" s="8">
         <v>486</v>
@@ -24323,7 +24625,7 @@
         <v>718</v>
       </c>
       <c r="AG102" s="8">
-        <v>50513</v>
+        <v>50516</v>
       </c>
       <c r="AH102" s="8">
         <v>19819</v>
@@ -24338,7 +24640,7 @@
         <v>2990</v>
       </c>
       <c r="AL102" s="8">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="AM102" s="8">
         <v>2532</v>
@@ -24359,7 +24661,7 @@
         <v>2068</v>
       </c>
       <c r="AS102" s="8">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="AT102" s="8">
         <v>197</v>
@@ -24371,7 +24673,7 @@
         <v>677</v>
       </c>
       <c r="AW102" s="8">
-        <v>51968</v>
+        <v>51969</v>
       </c>
     </row>
     <row r="103" spans="1:49" x14ac:dyDescent="0.2">
@@ -24460,7 +24762,7 @@
         <v>2178</v>
       </c>
       <c r="AC103" s="8">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="AD103" s="8">
         <v>-15</v>
@@ -24472,7 +24774,7 @@
         <v>681</v>
       </c>
       <c r="AG103" s="8">
-        <v>47980</v>
+        <v>47978</v>
       </c>
       <c r="AH103" s="8">
         <v>18732</v>
@@ -24508,7 +24810,7 @@
         <v>2057</v>
       </c>
       <c r="AS103" s="8">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="AT103" s="8">
         <v>-46</v>
@@ -24520,7 +24822,7 @@
         <v>685</v>
       </c>
       <c r="AW103" s="8">
-        <v>45916</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="104" spans="1:49" x14ac:dyDescent="0.2">
@@ -24576,7 +24878,7 @@
         <v>36740</v>
       </c>
       <c r="R104" s="8">
-        <v>18582</v>
+        <v>18583</v>
       </c>
       <c r="S104" s="8">
         <v>4079</v>
@@ -24609,7 +24911,7 @@
         <v>496</v>
       </c>
       <c r="AC104" s="8">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AD104" s="8">
         <v>-354</v>
@@ -24621,7 +24923,7 @@
         <v>672</v>
       </c>
       <c r="AG104" s="8">
-        <v>33166</v>
+        <v>33163</v>
       </c>
       <c r="AH104" s="8">
         <v>18149</v>
@@ -24657,7 +24959,7 @@
         <v>1881</v>
       </c>
       <c r="AS104" s="8">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AT104" s="8">
         <v>-250</v>
@@ -24737,7 +25039,7 @@
         <v>3602</v>
       </c>
       <c r="V105" s="8">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="W105" s="8">
         <v>2825</v>
@@ -24758,7 +25060,7 @@
         <v>1929</v>
       </c>
       <c r="AC105" s="8">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AD105" s="8">
         <v>-258</v>
@@ -24770,7 +25072,7 @@
         <v>672</v>
       </c>
       <c r="AG105" s="8">
-        <v>36883</v>
+        <v>36886</v>
       </c>
       <c r="AH105" s="8">
         <v>17010</v>
@@ -24806,7 +25108,7 @@
         <v>1835</v>
       </c>
       <c r="AS105" s="8">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AT105" s="8">
         <v>-225</v>
@@ -24818,7 +25120,7 @@
         <v>679</v>
       </c>
       <c r="AW105" s="8">
-        <v>37441</v>
+        <v>37442</v>
       </c>
     </row>
     <row r="106" spans="1:49" x14ac:dyDescent="0.2">
@@ -24886,19 +25188,19 @@
         <v>2469</v>
       </c>
       <c r="V106" s="8">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="W106" s="8">
         <v>3248</v>
       </c>
       <c r="X106" s="8">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Y106" s="8">
         <v>1552</v>
       </c>
       <c r="Z106" s="8">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="AA106" s="8">
         <v>2973</v>
@@ -24907,7 +25209,7 @@
         <v>1571</v>
       </c>
       <c r="AC106" s="8">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AD106" s="8">
         <v>64</v>
@@ -24919,7 +25221,7 @@
         <v>700</v>
       </c>
       <c r="AG106" s="8">
-        <v>38343</v>
+        <v>38347</v>
       </c>
       <c r="AH106" s="8">
         <v>11227</v>
@@ -24955,7 +25257,7 @@
         <v>2149</v>
       </c>
       <c r="AS106" s="8">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AT106" s="8">
         <v>66</v>
@@ -24967,7 +25269,7 @@
         <v>707</v>
       </c>
       <c r="AW106" s="8">
-        <v>36029</v>
+        <v>36030</v>
       </c>
     </row>
     <row r="107" spans="1:49" x14ac:dyDescent="0.2">
@@ -25023,7 +25325,7 @@
         <v>40909</v>
       </c>
       <c r="R107" s="8">
-        <v>9477</v>
+        <v>9478</v>
       </c>
       <c r="S107" s="8">
         <v>4254</v>
@@ -25035,7 +25337,7 @@
         <v>3089</v>
       </c>
       <c r="V107" s="8">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="W107" s="8">
         <v>3070</v>
@@ -25056,7 +25358,7 @@
         <v>3269</v>
       </c>
       <c r="AC107" s="8">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="AD107" s="8">
         <v>399</v>
@@ -25068,10 +25370,10 @@
         <v>748</v>
       </c>
       <c r="AG107" s="8">
-        <v>39118</v>
+        <v>39115</v>
       </c>
       <c r="AH107" s="8">
-        <v>10594</v>
+        <v>10595</v>
       </c>
       <c r="AI107" s="8">
         <v>4475</v>
@@ -25101,10 +25403,10 @@
         <v>3606</v>
       </c>
       <c r="AR107" s="8">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="AS107" s="8">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AT107" s="8">
         <v>390</v>
@@ -25116,7 +25418,7 @@
         <v>737</v>
       </c>
       <c r="AW107" s="8">
-        <v>39670</v>
+        <v>39668</v>
       </c>
     </row>
     <row r="108" spans="1:49" x14ac:dyDescent="0.2">
@@ -25193,10 +25495,10 @@
         <v>873</v>
       </c>
       <c r="Y108" s="8">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="Z108" s="8">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="AA108" s="8">
         <v>1844</v>
@@ -25205,22 +25507,22 @@
         <v>606</v>
       </c>
       <c r="AC108" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AD108" s="8">
         <v>693</v>
       </c>
       <c r="AE108" s="8">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF108" s="8">
         <v>1057</v>
       </c>
       <c r="AG108" s="8">
-        <v>38197</v>
+        <v>38193</v>
       </c>
       <c r="AH108" s="8">
-        <v>10534</v>
+        <v>10535</v>
       </c>
       <c r="AI108" s="8">
         <v>5449</v>
@@ -25253,7 +25555,7 @@
         <v>3173</v>
       </c>
       <c r="AS108" s="8">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AT108" s="8">
         <v>530</v>
@@ -25265,7 +25567,7 @@
         <v>869</v>
       </c>
       <c r="AW108" s="8">
-        <v>41008</v>
+        <v>41007</v>
       </c>
     </row>
     <row r="109" spans="1:49" x14ac:dyDescent="0.2">
@@ -25333,7 +25635,7 @@
         <v>3423</v>
       </c>
       <c r="V109" s="8">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="W109" s="8">
         <v>2896</v>
@@ -25345,7 +25647,7 @@
         <v>1972</v>
       </c>
       <c r="Z109" s="8">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="AA109" s="8">
         <v>2144</v>
@@ -25354,7 +25656,7 @@
         <v>3262</v>
       </c>
       <c r="AC109" s="8">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="AD109" s="8">
         <v>389</v>
@@ -25366,7 +25668,7 @@
         <v>851</v>
       </c>
       <c r="AG109" s="8">
-        <v>43423</v>
+        <v>43429</v>
       </c>
       <c r="AH109" s="8">
         <v>10940</v>
@@ -25387,7 +25689,7 @@
         <v>2876</v>
       </c>
       <c r="AN109" s="8">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AO109" s="8">
         <v>1930</v>
@@ -25402,7 +25704,7 @@
         <v>3193</v>
       </c>
       <c r="AS109" s="8">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="AT109" s="8">
         <v>496</v>
@@ -25414,7 +25716,7 @@
         <v>838</v>
       </c>
       <c r="AW109" s="8">
-        <v>41450</v>
+        <v>41452</v>
       </c>
     </row>
     <row r="110" spans="1:49" x14ac:dyDescent="0.2">
@@ -25470,7 +25772,7 @@
         <v>47049</v>
       </c>
       <c r="R110" s="8">
-        <v>17886</v>
+        <v>17885</v>
       </c>
       <c r="S110" s="8">
         <v>6068</v>
@@ -25482,7 +25784,7 @@
         <v>4706</v>
       </c>
       <c r="V110" s="8">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="W110" s="8">
         <v>2822</v>
@@ -25491,19 +25793,19 @@
         <v>719</v>
       </c>
       <c r="Y110" s="8">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="Z110" s="8">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="AA110" s="8">
         <v>-416</v>
       </c>
       <c r="AB110" s="8">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="AC110" s="8">
-        <v>2789</v>
+        <v>2794</v>
       </c>
       <c r="AD110" s="8">
         <v>430</v>
@@ -25515,10 +25817,10 @@
         <v>792</v>
       </c>
       <c r="AG110" s="8">
-        <v>47934</v>
+        <v>47938</v>
       </c>
       <c r="AH110" s="8">
-        <v>18538</v>
+        <v>18537</v>
       </c>
       <c r="AI110" s="8">
         <v>5994</v>
@@ -25530,7 +25832,7 @@
         <v>3115</v>
       </c>
       <c r="AL110" s="8">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="AM110" s="8">
         <v>2932</v>
@@ -25542,7 +25844,7 @@
         <v>2143</v>
       </c>
       <c r="AP110" s="8">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="AQ110" s="8">
         <v>1410</v>
@@ -25551,7 +25853,7 @@
         <v>3014</v>
       </c>
       <c r="AS110" s="8">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="AT110" s="8">
         <v>501</v>
@@ -25619,10 +25921,10 @@
         <v>55243</v>
       </c>
       <c r="R111" s="8">
-        <v>19589</v>
+        <v>19587</v>
       </c>
       <c r="S111" s="8">
-        <v>5543</v>
+        <v>5544</v>
       </c>
       <c r="T111" s="8">
         <v>917</v>
@@ -25631,7 +25933,7 @@
         <v>3087</v>
       </c>
       <c r="V111" s="8">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="W111" s="8">
         <v>3165</v>
@@ -25643,7 +25945,7 @@
         <v>2539</v>
       </c>
       <c r="Z111" s="8">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="AA111" s="8">
         <v>3309</v>
@@ -25652,7 +25954,7 @@
         <v>2948</v>
       </c>
       <c r="AC111" s="8">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="AD111" s="8">
         <v>543</v>
@@ -25664,10 +25966,10 @@
         <v>820</v>
       </c>
       <c r="AG111" s="8">
-        <v>52095</v>
+        <v>52087</v>
       </c>
       <c r="AH111" s="8">
-        <v>19274</v>
+        <v>19275</v>
       </c>
       <c r="AI111" s="8">
         <v>5530</v>
@@ -25700,7 +26002,7 @@
         <v>2868</v>
       </c>
       <c r="AS111" s="8">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="AT111" s="8">
         <v>571</v>
@@ -25712,7 +26014,7 @@
         <v>842</v>
       </c>
       <c r="AW111" s="8">
-        <v>50668</v>
+        <v>50666</v>
       </c>
     </row>
     <row r="112" spans="1:49" x14ac:dyDescent="0.2">
@@ -25768,7 +26070,7 @@
         <v>55304</v>
       </c>
       <c r="R112" s="8">
-        <v>20119</v>
+        <v>20125</v>
       </c>
       <c r="S112" s="8">
         <v>4734</v>
@@ -25780,7 +26082,7 @@
         <v>2754</v>
       </c>
       <c r="V112" s="8">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="W112" s="8">
         <v>2900</v>
@@ -25789,10 +26091,10 @@
         <v>807</v>
       </c>
       <c r="Y112" s="8">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="Z112" s="8">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="AA112" s="8">
         <v>4277</v>
@@ -25801,7 +26103,7 @@
         <v>2959</v>
       </c>
       <c r="AC112" s="8">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="AD112" s="8">
         <v>774</v>
@@ -25813,10 +26115,10 @@
         <v>913</v>
       </c>
       <c r="AG112" s="8">
-        <v>52421</v>
+        <v>52418</v>
       </c>
       <c r="AH112" s="8">
-        <v>19663</v>
+        <v>19664</v>
       </c>
       <c r="AI112" s="8">
         <v>5169</v>
@@ -25828,7 +26130,7 @@
         <v>2829</v>
       </c>
       <c r="AL112" s="8">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="AM112" s="8">
         <v>2984</v>
@@ -25840,7 +26142,7 @@
         <v>2512</v>
       </c>
       <c r="AP112" s="8">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="AQ112" s="8">
         <v>3444</v>
@@ -25849,7 +26151,7 @@
         <v>2847</v>
       </c>
       <c r="AS112" s="8">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AT112" s="8">
         <v>542</v>
@@ -25917,7 +26219,7 @@
         <v>41495</v>
       </c>
       <c r="R113" s="8">
-        <v>17646</v>
+        <v>17645</v>
       </c>
       <c r="S113" s="8">
         <v>5226</v>
@@ -25929,7 +26231,7 @@
         <v>2881</v>
       </c>
       <c r="V113" s="8">
-        <v>4277</v>
+        <v>4280</v>
       </c>
       <c r="W113" s="8">
         <v>2934</v>
@@ -25950,7 +26252,7 @@
         <v>2517</v>
       </c>
       <c r="AC113" s="8">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="AD113" s="8">
         <v>215</v>
@@ -25962,10 +26264,10 @@
         <v>866</v>
       </c>
       <c r="AG113" s="8">
-        <v>46937</v>
+        <v>46945</v>
       </c>
       <c r="AH113" s="8">
-        <v>19802</v>
+        <v>19801</v>
       </c>
       <c r="AI113" s="8">
         <v>4928</v>
@@ -25977,7 +26279,7 @@
         <v>2898</v>
       </c>
       <c r="AL113" s="8">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="AM113" s="8">
         <v>3020</v>
@@ -25986,7 +26288,7 @@
         <v>792</v>
       </c>
       <c r="AO113" s="8">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="AP113" s="8">
         <v>2235</v>
@@ -25998,7 +26300,7 @@
         <v>2934</v>
       </c>
       <c r="AS113" s="8">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AT113" s="8">
         <v>314</v>
@@ -26010,7 +26312,7 @@
         <v>858</v>
       </c>
       <c r="AW113" s="8">
-        <v>49758</v>
+        <v>49762</v>
       </c>
     </row>
     <row r="114" spans="1:49" x14ac:dyDescent="0.2">
@@ -26066,7 +26368,7 @@
         <v>47073</v>
       </c>
       <c r="R114" s="8">
-        <v>19271</v>
+        <v>19267</v>
       </c>
       <c r="S114" s="8">
         <v>4860</v>
@@ -26078,7 +26380,7 @@
         <v>3036</v>
       </c>
       <c r="V114" s="8">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="W114" s="8">
         <v>3187</v>
@@ -26087,19 +26389,19 @@
         <v>831</v>
       </c>
       <c r="Y114" s="8">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="Z114" s="8">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="AA114" s="8">
         <v>868</v>
       </c>
       <c r="AB114" s="8">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="AC114" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AD114" s="8">
         <v>24</v>
@@ -26111,10 +26413,10 @@
         <v>785</v>
       </c>
       <c r="AG114" s="8">
-        <v>47942</v>
+        <v>47948</v>
       </c>
       <c r="AH114" s="8">
-        <v>20154</v>
+        <v>20152</v>
       </c>
       <c r="AI114" s="8">
         <v>4651</v>
@@ -26135,19 +26437,19 @@
         <v>829</v>
       </c>
       <c r="AO114" s="8">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="AP114" s="8">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="AQ114" s="8">
         <v>332</v>
       </c>
       <c r="AR114" s="8">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="AS114" s="8">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AT114" s="8">
         <v>98</v>
@@ -26159,7 +26461,7 @@
         <v>750</v>
       </c>
       <c r="AW114" s="8">
-        <v>48242</v>
+        <v>48243</v>
       </c>
     </row>
     <row r="115" spans="1:49" x14ac:dyDescent="0.2">
@@ -26215,7 +26517,7 @@
         <v>49011</v>
       </c>
       <c r="R115" s="8">
-        <v>21062</v>
+        <v>21057</v>
       </c>
       <c r="S115" s="8">
         <v>2200</v>
@@ -26224,10 +26526,10 @@
         <v>1350</v>
       </c>
       <c r="U115" s="8">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="V115" s="8">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="W115" s="8">
         <v>3189</v>
@@ -26236,19 +26538,19 @@
         <v>888</v>
       </c>
       <c r="Y115" s="8">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="Z115" s="8">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="AA115" s="8">
         <v>-2305</v>
       </c>
       <c r="AB115" s="8">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="AC115" s="8">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="AD115" s="8">
         <v>57</v>
@@ -26260,10 +26562,10 @@
         <v>555</v>
       </c>
       <c r="AG115" s="8">
-        <v>45426</v>
+        <v>45415</v>
       </c>
       <c r="AH115" s="8">
-        <v>19876</v>
+        <v>19877</v>
       </c>
       <c r="AI115" s="8">
         <v>4256</v>
@@ -26275,7 +26577,7 @@
         <v>3377</v>
       </c>
       <c r="AL115" s="8">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="AM115" s="8">
         <v>3177</v>
@@ -26293,10 +26595,10 @@
         <v>-264</v>
       </c>
       <c r="AR115" s="8">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="AS115" s="8">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="AT115" s="8">
         <v>99</v>
@@ -26308,7 +26610,7 @@
         <v>617</v>
       </c>
       <c r="AW115" s="8">
-        <v>47993</v>
+        <v>47990</v>
       </c>
     </row>
     <row r="116" spans="1:49" x14ac:dyDescent="0.2">
@@ -26364,7 +26666,7 @@
         <v>52420</v>
       </c>
       <c r="R116" s="8">
-        <v>19119</v>
+        <v>19134</v>
       </c>
       <c r="S116" s="8">
         <v>4071</v>
@@ -26373,7 +26675,7 @@
         <v>1026</v>
       </c>
       <c r="U116" s="8">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="V116" s="8">
         <v>4571</v>
@@ -26385,34 +26687,34 @@
         <v>966</v>
       </c>
       <c r="Y116" s="8">
-        <v>2469</v>
+        <v>2464</v>
       </c>
       <c r="Z116" s="8">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="AA116" s="8">
         <v>1610</v>
       </c>
       <c r="AB116" s="8">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="AC116" s="8">
-        <v>2555</v>
+        <v>2545</v>
       </c>
       <c r="AD116" s="8">
         <v>325</v>
       </c>
       <c r="AE116" s="8">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF116" s="8">
         <v>556</v>
       </c>
       <c r="AG116" s="8">
-        <v>49973</v>
+        <v>49968</v>
       </c>
       <c r="AH116" s="8">
-        <v>18498</v>
+        <v>18502</v>
       </c>
       <c r="AI116" s="8">
         <v>3744</v>
@@ -26436,7 +26738,7 @@
         <v>2502</v>
       </c>
       <c r="AP116" s="8">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AQ116" s="8">
         <v>667</v>
@@ -26445,7 +26747,7 @@
         <v>3210</v>
       </c>
       <c r="AS116" s="8">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="AT116" s="8">
         <v>274</v>
@@ -26457,7 +26759,7 @@
         <v>535</v>
       </c>
       <c r="AW116" s="8">
-        <v>47516</v>
+        <v>47518</v>
       </c>
     </row>
     <row r="117" spans="1:49" x14ac:dyDescent="0.2">
@@ -26513,28 +26815,28 @@
         <v>39710</v>
       </c>
       <c r="R117" s="8">
-        <v>14395</v>
+        <v>14394</v>
       </c>
       <c r="S117" s="8">
         <v>3428</v>
       </c>
       <c r="T117" s="8">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="U117" s="8">
         <v>2909</v>
       </c>
       <c r="V117" s="8">
-        <v>4516</v>
+        <v>4520</v>
       </c>
       <c r="W117" s="8">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="X117" s="8">
         <v>1004</v>
       </c>
       <c r="Y117" s="8">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="Z117" s="8">
         <v>1807</v>
@@ -26546,10 +26848,10 @@
         <v>3281</v>
       </c>
       <c r="AC117" s="8">
-        <v>1885</v>
+        <v>1900</v>
       </c>
       <c r="AD117" s="8">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE117" s="8">
         <v>663</v>
@@ -26558,7 +26860,7 @@
         <v>507</v>
       </c>
       <c r="AG117" s="8">
-        <v>44602</v>
+        <v>44623</v>
       </c>
       <c r="AH117" s="8">
         <v>16258</v>
@@ -26573,7 +26875,7 @@
         <v>3311</v>
       </c>
       <c r="AL117" s="8">
-        <v>4482</v>
+        <v>4484</v>
       </c>
       <c r="AM117" s="8">
         <v>3214</v>
@@ -26582,7 +26884,7 @@
         <v>976</v>
       </c>
       <c r="AO117" s="8">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="AP117" s="8">
         <v>1831</v>
@@ -26594,7 +26896,7 @@
         <v>3273</v>
       </c>
       <c r="AS117" s="8">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="AT117" s="8">
         <v>357</v>
@@ -26606,7 +26908,7 @@
         <v>524</v>
       </c>
       <c r="AW117" s="8">
-        <v>46035</v>
+        <v>46042</v>
       </c>
     </row>
     <row r="118" spans="1:49" x14ac:dyDescent="0.2">
@@ -26662,7 +26964,7 @@
         <v>40137</v>
       </c>
       <c r="R118" s="8">
-        <v>15235</v>
+        <v>15228</v>
       </c>
       <c r="S118" s="8">
         <v>2922</v>
@@ -26677,25 +26979,25 @@
         <v>4139</v>
       </c>
       <c r="W118" s="8">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="X118" s="8">
         <v>988</v>
       </c>
       <c r="Y118" s="8">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="Z118" s="8">
-        <v>-767</v>
+        <v>-761</v>
       </c>
       <c r="AA118" s="8">
         <v>1628</v>
       </c>
       <c r="AB118" s="8">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="AC118" s="8">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="AD118" s="8">
         <v>312</v>
@@ -26707,10 +27009,10 @@
         <v>558</v>
       </c>
       <c r="AG118" s="8">
-        <v>41249</v>
+        <v>41255</v>
       </c>
       <c r="AH118" s="8">
-        <v>13682</v>
+        <v>13679</v>
       </c>
       <c r="AI118" s="8">
         <v>3314</v>
@@ -26722,7 +27024,7 @@
         <v>3302</v>
       </c>
       <c r="AL118" s="8">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="AM118" s="8">
         <v>3236</v>
@@ -26731,19 +27033,19 @@
         <v>1016</v>
       </c>
       <c r="AO118" s="8">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="AP118" s="8">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="AQ118" s="8">
         <v>2729</v>
       </c>
       <c r="AR118" s="8">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="AS118" s="8">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="AT118" s="8">
         <v>293</v>
@@ -26755,7 +27057,7 @@
         <v>553</v>
       </c>
       <c r="AW118" s="8">
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="119" spans="1:49" x14ac:dyDescent="0.2">
@@ -26811,7 +27113,7 @@
         <v>46694</v>
       </c>
       <c r="R119" s="8">
-        <v>11741</v>
+        <v>11733</v>
       </c>
       <c r="S119" s="8">
         <v>3631</v>
@@ -26820,10 +27122,10 @@
         <v>1138</v>
       </c>
       <c r="U119" s="8">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="V119" s="8">
-        <v>4081</v>
+        <v>4078</v>
       </c>
       <c r="W119" s="8">
         <v>3114</v>
@@ -26832,19 +27134,19 @@
         <v>980</v>
       </c>
       <c r="Y119" s="8">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="Z119" s="8">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="AA119" s="8">
         <v>3292</v>
       </c>
       <c r="AB119" s="8">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="AC119" s="8">
-        <v>2491</v>
+        <v>2479</v>
       </c>
       <c r="AD119" s="8">
         <v>80</v>
@@ -26856,10 +27158,10 @@
         <v>592</v>
       </c>
       <c r="AG119" s="8">
-        <v>43389</v>
+        <v>43371</v>
       </c>
       <c r="AH119" s="8">
-        <v>11785</v>
+        <v>11786</v>
       </c>
       <c r="AI119" s="8">
         <v>3183</v>
@@ -26871,7 +27173,7 @@
         <v>3441</v>
       </c>
       <c r="AL119" s="8">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="AM119" s="8">
         <v>3221</v>
@@ -26889,13 +27191,13 @@
         <v>2887</v>
       </c>
       <c r="AR119" s="8">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="AS119" s="8">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="AT119" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AU119" s="8">
         <v>635</v>
@@ -26904,7 +27206,7 @@
         <v>576</v>
       </c>
       <c r="AW119" s="8">
-        <v>42567</v>
+        <v>42561</v>
       </c>
     </row>
     <row r="120" spans="1:49" x14ac:dyDescent="0.2">
@@ -26960,7 +27262,7 @@
         <v>45397</v>
       </c>
       <c r="R120" s="8">
-        <v>9631</v>
+        <v>9653</v>
       </c>
       <c r="S120" s="8">
         <v>3028</v>
@@ -26972,7 +27274,7 @@
         <v>3519</v>
       </c>
       <c r="V120" s="8">
-        <v>3895</v>
+        <v>3890</v>
       </c>
       <c r="W120" s="8">
         <v>3338</v>
@@ -26981,34 +27283,34 @@
         <v>1242</v>
       </c>
       <c r="Y120" s="8">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="Z120" s="8">
-        <v>3095</v>
+        <v>3084</v>
       </c>
       <c r="AA120" s="8">
         <v>2648</v>
       </c>
       <c r="AB120" s="8">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="AC120" s="8">
-        <v>3429</v>
+        <v>3415</v>
       </c>
       <c r="AD120" s="8">
         <v>120</v>
       </c>
       <c r="AE120" s="8">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF120" s="8">
         <v>581</v>
       </c>
       <c r="AG120" s="8">
-        <v>42383</v>
+        <v>42368</v>
       </c>
       <c r="AH120" s="8">
-        <v>11186</v>
+        <v>11190</v>
       </c>
       <c r="AI120" s="8">
         <v>3058</v>
@@ -27020,7 +27322,7 @@
         <v>3645</v>
       </c>
       <c r="AL120" s="8">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="AM120" s="8">
         <v>3215</v>
@@ -27029,10 +27331,10 @@
         <v>1063</v>
       </c>
       <c r="AO120" s="8">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="AP120" s="8">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="AQ120" s="8">
         <v>2524</v>
@@ -27041,7 +27343,7 @@
         <v>3231</v>
       </c>
       <c r="AS120" s="8">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="AT120" s="8">
         <v>80</v>
@@ -27053,7 +27355,7 @@
         <v>582</v>
       </c>
       <c r="AW120" s="8">
-        <v>42712</v>
+        <v>42714</v>
       </c>
     </row>
     <row r="121" spans="1:49" x14ac:dyDescent="0.2">
@@ -27109,19 +27411,19 @@
         <v>39441</v>
       </c>
       <c r="R121" s="8">
-        <v>12459</v>
+        <v>12451</v>
       </c>
       <c r="S121" s="8">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="T121" s="8">
         <v>1094</v>
       </c>
       <c r="U121" s="8">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="V121" s="8">
-        <v>4154</v>
+        <v>4167</v>
       </c>
       <c r="W121" s="8">
         <v>3104</v>
@@ -27130,22 +27432,22 @@
         <v>889</v>
       </c>
       <c r="Y121" s="8">
-        <v>2944</v>
+        <v>2958</v>
       </c>
       <c r="Z121" s="8">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="AA121" s="8">
         <v>2645</v>
       </c>
       <c r="AB121" s="8">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="AC121" s="8">
-        <v>3088</v>
+        <v>3112</v>
       </c>
       <c r="AD121" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE121" s="8">
         <v>601</v>
@@ -27154,10 +27456,10 @@
         <v>579</v>
       </c>
       <c r="AG121" s="8">
-        <v>44131</v>
+        <v>44172</v>
       </c>
       <c r="AH121" s="8">
-        <v>11582</v>
+        <v>11577</v>
       </c>
       <c r="AI121" s="8">
         <v>2924</v>
@@ -27169,7 +27471,7 @@
         <v>3744</v>
       </c>
       <c r="AL121" s="8">
-        <v>4065</v>
+        <v>4068</v>
       </c>
       <c r="AM121" s="8">
         <v>3263</v>
@@ -27178,19 +27480,19 @@
         <v>1004</v>
       </c>
       <c r="AO121" s="8">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="AP121" s="8">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="AQ121" s="8">
         <v>1858</v>
       </c>
       <c r="AR121" s="8">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="AS121" s="8">
-        <v>3499</v>
+        <v>3506</v>
       </c>
       <c r="AT121" s="8">
         <v>118</v>
@@ -27202,7 +27504,7 @@
         <v>586</v>
       </c>
       <c r="AW121" s="8">
-        <v>42973</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="122" spans="1:49" x14ac:dyDescent="0.2">
@@ -27258,7 +27560,7 @@
         <v>39669</v>
       </c>
       <c r="R122" s="8">
-        <v>13895</v>
+        <v>13884</v>
       </c>
       <c r="S122" s="8">
         <v>1259</v>
@@ -27270,7 +27572,7 @@
         <v>3960</v>
       </c>
       <c r="V122" s="8">
-        <v>4228</v>
+        <v>4225</v>
       </c>
       <c r="W122" s="8">
         <v>3435</v>
@@ -27279,19 +27581,19 @@
         <v>903</v>
       </c>
       <c r="Y122" s="8">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="Z122" s="8">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="AA122" s="8">
         <v>-671</v>
       </c>
       <c r="AB122" s="8">
-        <v>3127</v>
+        <v>3121</v>
       </c>
       <c r="AC122" s="8">
-        <v>4414</v>
+        <v>4420</v>
       </c>
       <c r="AD122" s="8">
         <v>244</v>
@@ -27306,19 +27608,19 @@
         <v>40863</v>
       </c>
       <c r="AH122" s="8">
-        <v>13290</v>
+        <v>13286</v>
       </c>
       <c r="AI122" s="8">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="AJ122" s="8">
         <v>1181</v>
       </c>
       <c r="AK122" s="8">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="AL122" s="8">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="AM122" s="8">
         <v>3311</v>
@@ -27327,19 +27629,19 @@
         <v>889</v>
       </c>
       <c r="AO122" s="8">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="AP122" s="8">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="AQ122" s="8">
         <v>1402</v>
       </c>
       <c r="AR122" s="8">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="AS122" s="8">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="AT122" s="8">
         <v>180</v>
@@ -27351,7 +27653,7 @@
         <v>604</v>
       </c>
       <c r="AW122" s="8">
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="123" spans="1:49" x14ac:dyDescent="0.2">
@@ -27407,7 +27709,7 @@
         <v>49404</v>
       </c>
       <c r="R123" s="8">
-        <v>12956</v>
+        <v>12942</v>
       </c>
       <c r="S123" s="8">
         <v>5002</v>
@@ -27416,46 +27718,46 @@
         <v>1273</v>
       </c>
       <c r="U123" s="8">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="V123" s="8">
-        <v>2689</v>
+        <v>2684</v>
       </c>
       <c r="W123" s="8">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="X123" s="8">
         <v>864</v>
       </c>
       <c r="Y123" s="8">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="Z123" s="8">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="AA123" s="8">
         <v>3349</v>
       </c>
       <c r="AB123" s="8">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="AC123" s="8">
-        <v>2353</v>
+        <v>2340</v>
       </c>
       <c r="AD123" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AE123" s="8">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF123" s="8">
         <v>668</v>
       </c>
       <c r="AG123" s="8">
-        <v>45350</v>
+        <v>45318</v>
       </c>
       <c r="AH123" s="8">
-        <v>14924</v>
+        <v>14933</v>
       </c>
       <c r="AI123" s="8">
         <v>3512</v>
@@ -27464,10 +27766,10 @@
         <v>1112</v>
       </c>
       <c r="AK123" s="8">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="AL123" s="8">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="AM123" s="8">
         <v>3377</v>
@@ -27476,22 +27778,22 @@
         <v>807</v>
       </c>
       <c r="AO123" s="8">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="AP123" s="8">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="AQ123" s="8">
         <v>1769</v>
       </c>
       <c r="AR123" s="8">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="AS123" s="8">
-        <v>3679</v>
+        <v>3672</v>
       </c>
       <c r="AT123" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AU123" s="8">
         <v>693</v>
@@ -27500,7 +27802,7 @@
         <v>639</v>
       </c>
       <c r="AW123" s="8">
-        <v>46275</v>
+        <v>46273</v>
       </c>
     </row>
     <row r="124" spans="1:49" x14ac:dyDescent="0.2">
@@ -27556,58 +27858,58 @@
         <v>51133</v>
       </c>
       <c r="R124" s="8">
-        <v>17432</v>
+        <v>17499</v>
       </c>
       <c r="S124" s="8">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="T124" s="8">
         <v>847</v>
       </c>
       <c r="U124" s="8">
-        <v>4118</v>
+        <v>4120</v>
       </c>
       <c r="V124" s="8">
-        <v>3225</v>
+        <v>3215</v>
       </c>
       <c r="W124" s="8">
         <v>3263</v>
       </c>
       <c r="X124" s="8">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y124" s="8">
-        <v>2306</v>
+        <v>2296</v>
       </c>
       <c r="Z124" s="8">
-        <v>2180</v>
+        <v>2165</v>
       </c>
       <c r="AA124" s="8">
         <v>1855</v>
       </c>
       <c r="AB124" s="8">
-        <v>3412</v>
+        <v>3424</v>
       </c>
       <c r="AC124" s="8">
-        <v>4911</v>
+        <v>4883</v>
       </c>
       <c r="AD124" s="8">
         <v>184</v>
       </c>
       <c r="AE124" s="8">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF124" s="8">
         <v>637</v>
       </c>
       <c r="AG124" s="8">
-        <v>49591</v>
+        <v>49610</v>
       </c>
       <c r="AH124" s="8">
-        <v>15121</v>
+        <v>15141</v>
       </c>
       <c r="AI124" s="8">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="AJ124" s="8">
         <v>1180</v>
@@ -27616,10 +27918,10 @@
         <v>3868</v>
       </c>
       <c r="AL124" s="8">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="AM124" s="8">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="AN124" s="8">
         <v>836</v>
@@ -27628,16 +27930,16 @@
         <v>2194</v>
       </c>
       <c r="AP124" s="8">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="AQ124" s="8">
         <v>2383</v>
       </c>
       <c r="AR124" s="8">
-        <v>3610</v>
+        <v>3612</v>
       </c>
       <c r="AS124" s="8">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="AT124" s="8">
         <v>269</v>
@@ -27649,7 +27951,7 @@
         <v>659</v>
       </c>
       <c r="AW124" s="8">
-        <v>47168</v>
+        <v>47182</v>
       </c>
     </row>
     <row r="125" spans="1:49" x14ac:dyDescent="0.2">
@@ -27705,67 +28007,67 @@
         <v>43004</v>
       </c>
       <c r="R125" s="8">
-        <v>13747</v>
+        <v>13734</v>
       </c>
       <c r="S125" s="8">
-        <v>5165</v>
+        <v>5162</v>
       </c>
       <c r="T125" s="8">
         <v>1534</v>
       </c>
       <c r="U125" s="8">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="V125" s="8">
-        <v>3199</v>
+        <v>3220</v>
       </c>
       <c r="W125" s="8">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="X125" s="8">
         <v>962</v>
       </c>
       <c r="Y125" s="8">
-        <v>1925</v>
+        <v>1946</v>
       </c>
       <c r="Z125" s="8">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="AA125" s="8">
         <v>2599</v>
       </c>
       <c r="AB125" s="8">
-        <v>4192</v>
+        <v>4185</v>
       </c>
       <c r="AC125" s="8">
-        <v>1928</v>
+        <v>1968</v>
       </c>
       <c r="AD125" s="8">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AE125" s="8">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF125" s="8">
         <v>701</v>
       </c>
       <c r="AG125" s="8">
-        <v>47745</v>
+        <v>47802</v>
       </c>
       <c r="AH125" s="8">
-        <v>14047</v>
+        <v>14056</v>
       </c>
       <c r="AI125" s="8">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="AJ125" s="8">
         <v>1270</v>
       </c>
       <c r="AK125" s="8">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="AL125" s="8">
-        <v>3347</v>
+        <v>3353</v>
       </c>
       <c r="AM125" s="8">
         <v>3173</v>
@@ -27774,19 +28076,19 @@
         <v>940</v>
       </c>
       <c r="AO125" s="8">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="AP125" s="8">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="AQ125" s="8">
         <v>2272</v>
       </c>
       <c r="AR125" s="8">
-        <v>3857</v>
+        <v>3852</v>
       </c>
       <c r="AS125" s="8">
-        <v>2777</v>
+        <v>2786</v>
       </c>
       <c r="AT125" s="8">
         <v>349</v>
@@ -27798,7 +28100,7 @@
         <v>667</v>
       </c>
       <c r="AW125" s="8">
-        <v>46122</v>
+        <v>46148</v>
       </c>
     </row>
     <row r="126" spans="1:49" x14ac:dyDescent="0.2">
@@ -27854,55 +28156,55 @@
         <v>38042</v>
       </c>
       <c r="R126" s="8">
-        <v>10143</v>
+        <v>10131</v>
       </c>
       <c r="S126" s="8">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="T126" s="8">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="U126" s="8">
-        <v>4313</v>
+        <v>4315</v>
       </c>
       <c r="V126" s="8">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="W126" s="8">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="X126" s="8">
         <v>1118</v>
       </c>
       <c r="Y126" s="8">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="Z126" s="8">
-        <v>1814</v>
+        <v>1833</v>
       </c>
       <c r="AA126" s="8">
         <v>1929</v>
       </c>
       <c r="AB126" s="8">
-        <v>3750</v>
+        <v>3732</v>
       </c>
       <c r="AC126" s="8">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="AD126" s="8">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AE126" s="8">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF126" s="8">
         <v>345</v>
       </c>
       <c r="AG126" s="8">
-        <v>39429</v>
+        <v>39425</v>
       </c>
       <c r="AH126" s="8">
-        <v>11244</v>
+        <v>11236</v>
       </c>
       <c r="AI126" s="8">
         <v>4154</v>
@@ -27914,7 +28216,7 @@
         <v>4290</v>
       </c>
       <c r="AL126" s="8">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="AM126" s="8">
         <v>3061</v>
@@ -27923,19 +28225,19 @@
         <v>1084</v>
       </c>
       <c r="AO126" s="8">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AP126" s="8">
-        <v>2350</v>
+        <v>2355</v>
       </c>
       <c r="AQ126" s="8">
         <v>1678</v>
       </c>
       <c r="AR126" s="8">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="AS126" s="8">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="AT126" s="8">
         <v>506</v>
@@ -27947,7 +28249,7 @@
         <v>679</v>
       </c>
       <c r="AW126" s="8">
-        <v>42966</v>
+        <v>42961</v>
       </c>
     </row>
     <row r="127" spans="1:49" x14ac:dyDescent="0.2">
@@ -28003,7 +28305,7 @@
         <v>45889</v>
       </c>
       <c r="R127" s="8">
-        <v>10112</v>
+        <v>10097</v>
       </c>
       <c r="S127" s="8">
         <v>4238</v>
@@ -28012,58 +28314,58 @@
         <v>1377</v>
       </c>
       <c r="U127" s="8">
-        <v>4678</v>
+        <v>4672</v>
       </c>
       <c r="V127" s="8">
-        <v>3380</v>
+        <v>3374</v>
       </c>
       <c r="W127" s="8">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="X127" s="8">
         <v>1168</v>
       </c>
       <c r="Y127" s="8">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="Z127" s="8">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="AA127" s="8">
         <v>812</v>
       </c>
       <c r="AB127" s="8">
-        <v>4244</v>
+        <v>4255</v>
       </c>
       <c r="AC127" s="8">
-        <v>3193</v>
+        <v>3179</v>
       </c>
       <c r="AD127" s="8">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AE127" s="8">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF127" s="8">
         <v>744</v>
       </c>
       <c r="AG127" s="8">
-        <v>42658</v>
+        <v>42617</v>
       </c>
       <c r="AH127" s="8">
-        <v>8318</v>
+        <v>8311</v>
       </c>
       <c r="AI127" s="8">
         <v>3840</v>
       </c>
       <c r="AJ127" s="8">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="AK127" s="8">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="AL127" s="8">
-        <v>3573</v>
+        <v>3567</v>
       </c>
       <c r="AM127" s="8">
         <v>3071</v>
@@ -28072,19 +28374,19 @@
         <v>1155</v>
       </c>
       <c r="AO127" s="8">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="AP127" s="8">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="AQ127" s="8">
         <v>2297</v>
       </c>
       <c r="AR127" s="8">
-        <v>4080</v>
+        <v>4087</v>
       </c>
       <c r="AS127" s="8">
-        <v>2507</v>
+        <v>2497</v>
       </c>
       <c r="AT127" s="8">
         <v>743</v>
@@ -28096,7 +28398,7 @@
         <v>711</v>
       </c>
       <c r="AW127" s="8">
-        <v>40859</v>
+        <v>40837</v>
       </c>
     </row>
     <row r="128" spans="1:49" x14ac:dyDescent="0.2">
@@ -28152,40 +28454,40 @@
         <v>42636</v>
       </c>
       <c r="R128" s="8">
-        <v>4463</v>
+        <v>4487</v>
       </c>
       <c r="S128" s="8">
         <v>3581</v>
       </c>
       <c r="T128" s="8">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="U128" s="8">
-        <v>4127</v>
+        <v>4129</v>
       </c>
       <c r="V128" s="8">
-        <v>3548</v>
+        <v>3524</v>
       </c>
       <c r="W128" s="8">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="X128" s="8">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Y128" s="8">
-        <v>2241</v>
+        <v>2219</v>
       </c>
       <c r="Z128" s="8">
-        <v>2284</v>
+        <v>2262</v>
       </c>
       <c r="AA128" s="8">
         <v>3324</v>
       </c>
       <c r="AB128" s="8">
-        <v>4211</v>
+        <v>4239</v>
       </c>
       <c r="AC128" s="8">
-        <v>2508</v>
+        <v>2468</v>
       </c>
       <c r="AD128" s="8">
         <v>846</v>
@@ -28197,43 +28499,43 @@
         <v>728</v>
       </c>
       <c r="AG128" s="8">
-        <v>38753</v>
+        <v>38700</v>
       </c>
       <c r="AH128" s="8">
-        <v>7000</v>
+        <v>7006</v>
       </c>
       <c r="AI128" s="8">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="AJ128" s="8">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="AK128" s="8">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="AL128" s="8">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="AM128" s="8">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="AN128" s="8">
         <v>1124</v>
       </c>
       <c r="AO128" s="8">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="AP128" s="8">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="AQ128" s="8">
         <v>2853</v>
       </c>
       <c r="AR128" s="8">
-        <v>4227</v>
+        <v>4232</v>
       </c>
       <c r="AS128" s="8">
-        <v>2838</v>
+        <v>2832</v>
       </c>
       <c r="AT128" s="8">
         <v>900</v>
@@ -28245,7 +28547,7 @@
         <v>749</v>
       </c>
       <c r="AW128" s="8">
-        <v>41235</v>
+        <v>41239</v>
       </c>
     </row>
     <row r="129" spans="1:49" x14ac:dyDescent="0.2">
@@ -28301,67 +28603,67 @@
         <v>39791</v>
       </c>
       <c r="R129" s="8">
-        <v>8069</v>
+        <v>8066</v>
       </c>
       <c r="S129" s="8">
-        <v>3855</v>
+        <v>3852</v>
       </c>
       <c r="T129" s="8">
         <v>1374</v>
       </c>
       <c r="U129" s="8">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="V129" s="8">
-        <v>3869</v>
+        <v>3908</v>
       </c>
       <c r="W129" s="8">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="X129" s="8">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="Y129" s="8">
-        <v>2118</v>
+        <v>2189</v>
       </c>
       <c r="Z129" s="8">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AA129" s="8">
         <v>3865</v>
       </c>
       <c r="AB129" s="8">
-        <v>4410</v>
+        <v>4389</v>
       </c>
       <c r="AC129" s="8">
-        <v>2727</v>
+        <v>2779</v>
       </c>
       <c r="AD129" s="8">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="AE129" s="8">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AF129" s="8">
         <v>790</v>
       </c>
       <c r="AG129" s="8">
-        <v>44112</v>
+        <v>44246</v>
       </c>
       <c r="AH129" s="8">
-        <v>6853</v>
+        <v>6852</v>
       </c>
       <c r="AI129" s="8">
         <v>3942</v>
       </c>
       <c r="AJ129" s="8">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AK129" s="8">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="AL129" s="8">
-        <v>3948</v>
+        <v>3956</v>
       </c>
       <c r="AM129" s="8">
         <v>3632</v>
@@ -28370,19 +28672,19 @@
         <v>1088</v>
       </c>
       <c r="AO129" s="8">
-        <v>2357</v>
+        <v>2374</v>
       </c>
       <c r="AP129" s="8">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="AQ129" s="8">
         <v>1374</v>
       </c>
       <c r="AR129" s="8">
-        <v>4691</v>
+        <v>4681</v>
       </c>
       <c r="AS129" s="8">
-        <v>2722</v>
+        <v>2736</v>
       </c>
       <c r="AT129" s="8">
         <v>825</v>
@@ -28394,7 +28696,7 @@
         <v>776</v>
       </c>
       <c r="AW129" s="8">
-        <v>41074</v>
+        <v>41103</v>
       </c>
     </row>
     <row r="130" spans="1:49" x14ac:dyDescent="0.2">
@@ -28450,100 +28752,100 @@
         <v>36584</v>
       </c>
       <c r="R130" s="8">
-        <v>6840</v>
+        <v>6826</v>
       </c>
       <c r="S130" s="8">
-        <v>4273</v>
+        <v>4278</v>
       </c>
       <c r="T130" s="8">
         <v>1295</v>
       </c>
       <c r="U130" s="8">
-        <v>4381</v>
+        <v>4384</v>
       </c>
       <c r="V130" s="8">
-        <v>4594</v>
+        <v>4587</v>
       </c>
       <c r="W130" s="8">
-        <v>3969</v>
+        <v>3972</v>
       </c>
       <c r="X130" s="8">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="Y130" s="8">
-        <v>2705</v>
+        <v>2688</v>
       </c>
       <c r="Z130" s="8">
-        <v>2204</v>
+        <v>2233</v>
       </c>
       <c r="AA130" s="8">
         <v>-2523</v>
       </c>
       <c r="AB130" s="8">
-        <v>5345</v>
+        <v>5311</v>
       </c>
       <c r="AC130" s="8">
-        <v>2573</v>
+        <v>2581</v>
       </c>
       <c r="AD130" s="8">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AE130" s="8">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AF130" s="8">
         <v>770</v>
       </c>
       <c r="AG130" s="8">
-        <v>38638</v>
+        <v>38610</v>
       </c>
       <c r="AH130" s="8">
-        <v>6686</v>
+        <v>6677</v>
       </c>
       <c r="AI130" s="8">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="AJ130" s="8">
         <v>1379</v>
       </c>
       <c r="AK130" s="8">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="AL130" s="8">
         <v>4346</v>
       </c>
       <c r="AM130" s="8">
-        <v>3753</v>
+        <v>3755</v>
       </c>
       <c r="AN130" s="8">
         <v>1088</v>
       </c>
       <c r="AO130" s="8">
-        <v>2633</v>
+        <v>2617</v>
       </c>
       <c r="AP130" s="8">
-        <v>2199</v>
+        <v>2206</v>
       </c>
       <c r="AQ130" s="8">
         <v>-1039</v>
       </c>
       <c r="AR130" s="8">
-        <v>5141</v>
+        <v>5135</v>
       </c>
       <c r="AS130" s="8">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="AT130" s="8">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU130" s="8">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AV130" s="8">
         <v>761</v>
       </c>
       <c r="AW130" s="8">
-        <v>39002</v>
+        <v>38985</v>
       </c>
     </row>
     <row r="131" spans="1:49" x14ac:dyDescent="0.2">
@@ -28599,55 +28901,55 @@
         <v>36963</v>
       </c>
       <c r="R131" s="8">
-        <v>6312</v>
+        <v>6289</v>
       </c>
       <c r="S131" s="8">
         <v>4597</v>
       </c>
       <c r="T131" s="8">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="U131" s="8">
-        <v>3719</v>
+        <v>3710</v>
       </c>
       <c r="V131" s="8">
-        <v>4430</v>
+        <v>4423</v>
       </c>
       <c r="W131" s="8">
-        <v>3692</v>
+        <v>3696</v>
       </c>
       <c r="X131" s="8">
         <v>1165</v>
       </c>
       <c r="Y131" s="8">
-        <v>2982</v>
+        <v>2927</v>
       </c>
       <c r="Z131" s="8">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="AA131" s="8">
         <v>-5027</v>
       </c>
       <c r="AB131" s="8">
-        <v>5785</v>
+        <v>5811</v>
       </c>
       <c r="AC131" s="8">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="AD131" s="8">
         <v>208</v>
       </c>
       <c r="AE131" s="8">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF131" s="8">
         <v>729</v>
       </c>
       <c r="AG131" s="8">
-        <v>34681</v>
+        <v>34602</v>
       </c>
       <c r="AH131" s="8">
-        <v>5550</v>
+        <v>5543</v>
       </c>
       <c r="AI131" s="8">
         <v>4499</v>
@@ -28656,43 +28958,43 @@
         <v>1258</v>
       </c>
       <c r="AK131" s="8">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="AL131" s="8">
-        <v>4512</v>
+        <v>4505</v>
       </c>
       <c r="AM131" s="8">
-        <v>3762</v>
+        <v>3764</v>
       </c>
       <c r="AN131" s="8">
         <v>1148</v>
       </c>
       <c r="AO131" s="8">
-        <v>2792</v>
+        <v>2769</v>
       </c>
       <c r="AP131" s="8">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="AQ131" s="8">
         <v>-2450</v>
       </c>
       <c r="AR131" s="8">
-        <v>5471</v>
+        <v>5485</v>
       </c>
       <c r="AS131" s="8">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="AT131" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AU131" s="8">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AV131" s="8">
         <v>727</v>
       </c>
       <c r="AW131" s="8">
-        <v>36002</v>
+        <v>35965</v>
       </c>
     </row>
     <row r="132" spans="1:49" x14ac:dyDescent="0.2">
@@ -28748,43 +29050,43 @@
         <v>42840</v>
       </c>
       <c r="R132" s="8">
-        <v>2800</v>
+        <v>2828</v>
       </c>
       <c r="S132" s="8">
-        <v>4723</v>
+        <v>4719</v>
       </c>
       <c r="T132" s="8">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="U132" s="8">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="V132" s="8">
-        <v>4463</v>
+        <v>4431</v>
       </c>
       <c r="W132" s="8">
-        <v>3245</v>
+        <v>3241</v>
       </c>
       <c r="X132" s="8">
         <v>1156</v>
       </c>
       <c r="Y132" s="8">
-        <v>2594</v>
+        <v>2551</v>
       </c>
       <c r="Z132" s="8">
-        <v>2313</v>
+        <v>2284</v>
       </c>
       <c r="AA132" s="8">
         <v>1611</v>
       </c>
       <c r="AB132" s="8">
-        <v>7934</v>
+        <v>7985</v>
       </c>
       <c r="AC132" s="8">
-        <v>953</v>
+        <v>892</v>
       </c>
       <c r="AD132" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE132" s="8">
         <v>767</v>
@@ -28793,46 +29095,46 @@
         <v>674</v>
       </c>
       <c r="AG132" s="8">
-        <v>37945</v>
+        <v>37858</v>
       </c>
       <c r="AH132" s="8">
-        <v>3874</v>
+        <v>3879</v>
       </c>
       <c r="AI132" s="8">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="AJ132" s="8">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="AK132" s="8">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="AL132" s="8">
-        <v>4460</v>
+        <v>4457</v>
       </c>
       <c r="AM132" s="8">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="AN132" s="8">
         <v>1177</v>
       </c>
       <c r="AO132" s="8">
-        <v>2813</v>
+        <v>2833</v>
       </c>
       <c r="AP132" s="8">
-        <v>2211</v>
+        <v>2202</v>
       </c>
       <c r="AQ132" s="8">
         <v>-1810</v>
       </c>
       <c r="AR132" s="8">
-        <v>5709</v>
+        <v>5718</v>
       </c>
       <c r="AS132" s="8">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="AT132" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AU132" s="8">
         <v>774</v>
@@ -28841,7 +29143,7 @@
         <v>705</v>
       </c>
       <c r="AW132" s="8">
-        <v>33845</v>
+        <v>33857</v>
       </c>
     </row>
     <row r="133" spans="1:49" x14ac:dyDescent="0.2">
@@ -28897,100 +29199,100 @@
         <v>28462</v>
       </c>
       <c r="R133" s="8">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="S133" s="8">
-        <v>3464</v>
+        <v>3460</v>
       </c>
       <c r="T133" s="8">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="U133" s="8">
-        <v>3616</v>
+        <v>3620</v>
       </c>
       <c r="V133" s="8">
-        <v>4410</v>
+        <v>4461</v>
       </c>
       <c r="W133" s="8">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="X133" s="8">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="Y133" s="8">
-        <v>2861</v>
+        <v>3048</v>
       </c>
       <c r="Z133" s="8">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="AA133" s="8">
         <v>-1725</v>
       </c>
       <c r="AB133" s="8">
-        <v>6134</v>
+        <v>6091</v>
       </c>
       <c r="AC133" s="8">
-        <v>1008</v>
+        <v>1083</v>
       </c>
       <c r="AD133" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AE133" s="8">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="AF133" s="8">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG133" s="8">
-        <v>32674</v>
+        <v>32941</v>
       </c>
       <c r="AH133" s="8">
-        <v>3587</v>
+        <v>3583</v>
       </c>
       <c r="AI133" s="8">
-        <v>4090</v>
+        <v>4092</v>
       </c>
       <c r="AJ133" s="8">
         <v>1264</v>
       </c>
       <c r="AK133" s="8">
-        <v>3409</v>
+        <v>3411</v>
       </c>
       <c r="AL133" s="8">
-        <v>4397</v>
+        <v>4408</v>
       </c>
       <c r="AM133" s="8">
         <v>2711</v>
       </c>
       <c r="AN133" s="8">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="AO133" s="8">
-        <v>2748</v>
+        <v>2806</v>
       </c>
       <c r="AP133" s="8">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="AQ133" s="8">
         <v>-240</v>
       </c>
       <c r="AR133" s="8">
-        <v>5851</v>
+        <v>5830</v>
       </c>
       <c r="AS133" s="8">
-        <v>1360</v>
+        <v>1378</v>
       </c>
       <c r="AT133" s="8">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU133" s="8">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AV133" s="8">
         <v>692</v>
       </c>
       <c r="AW133" s="8">
-        <v>34440</v>
+        <v>34508</v>
       </c>
     </row>
     <row r="134" spans="1:49" x14ac:dyDescent="0.2">
@@ -29046,100 +29348,100 @@
         <v>36098</v>
       </c>
       <c r="R134" s="8">
-        <v>4944</v>
+        <v>4930</v>
       </c>
       <c r="S134" s="8">
-        <v>4408</v>
+        <v>4420</v>
       </c>
       <c r="T134" s="8">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="U134" s="8">
-        <v>3332</v>
+        <v>3335</v>
       </c>
       <c r="V134" s="8">
-        <v>4321</v>
+        <v>4310</v>
       </c>
       <c r="W134" s="8">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="X134" s="8">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="Y134" s="8">
-        <v>2656</v>
+        <v>2635</v>
       </c>
       <c r="Z134" s="8">
-        <v>2401</v>
+        <v>2441</v>
       </c>
       <c r="AA134" s="8">
         <v>648</v>
       </c>
       <c r="AB134" s="8">
-        <v>6427</v>
+        <v>6366</v>
       </c>
       <c r="AC134" s="8">
-        <v>2540</v>
+        <v>2547</v>
       </c>
       <c r="AD134" s="8">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AE134" s="8">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="AF134" s="8">
         <v>736</v>
       </c>
       <c r="AG134" s="8">
-        <v>37853</v>
+        <v>37799</v>
       </c>
       <c r="AH134" s="8">
-        <v>4323</v>
+        <v>4314</v>
       </c>
       <c r="AI134" s="8">
-        <v>4187</v>
+        <v>4190</v>
       </c>
       <c r="AJ134" s="8">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="AK134" s="8">
         <v>3270</v>
       </c>
       <c r="AL134" s="8">
-        <v>4428</v>
+        <v>4430</v>
       </c>
       <c r="AM134" s="8">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="AN134" s="8">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AO134" s="8">
-        <v>2728</v>
+        <v>2718</v>
       </c>
       <c r="AP134" s="8">
-        <v>2144</v>
+        <v>2155</v>
       </c>
       <c r="AQ134" s="8">
         <v>971</v>
       </c>
       <c r="AR134" s="8">
-        <v>6258</v>
+        <v>6247</v>
       </c>
       <c r="AS134" s="8">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="AT134" s="8">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU134" s="8">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AV134" s="8">
         <v>717</v>
       </c>
       <c r="AW134" s="8">
-        <v>36885</v>
+        <v>36877</v>
       </c>
     </row>
     <row r="135" spans="1:49" x14ac:dyDescent="0.2">
@@ -29195,91 +29497,91 @@
         <v>41709</v>
       </c>
       <c r="R135" s="8">
-        <v>5363</v>
+        <v>5332</v>
       </c>
       <c r="S135" s="8">
-        <v>4614</v>
+        <v>4616</v>
       </c>
       <c r="T135" s="8">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="U135" s="8">
-        <v>2857</v>
+        <v>2848</v>
       </c>
       <c r="V135" s="8">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="W135" s="8">
-        <v>3490</v>
+        <v>3498</v>
       </c>
       <c r="X135" s="8">
         <v>1310</v>
       </c>
       <c r="Y135" s="8">
-        <v>2796</v>
+        <v>2708</v>
       </c>
       <c r="Z135" s="8">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="AA135" s="8">
         <v>2633</v>
       </c>
       <c r="AB135" s="8">
-        <v>6118</v>
+        <v>6162</v>
       </c>
       <c r="AC135" s="8">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="AD135" s="8">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AE135" s="8">
         <v>764</v>
       </c>
       <c r="AF135" s="8">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG135" s="8">
-        <v>40120</v>
+        <v>40025</v>
       </c>
       <c r="AH135" s="8">
         <v>5396</v>
       </c>
       <c r="AI135" s="8">
-        <v>4680</v>
+        <v>4678</v>
       </c>
       <c r="AJ135" s="8">
         <v>1366</v>
       </c>
       <c r="AK135" s="8">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="AL135" s="8">
-        <v>4519</v>
+        <v>4510</v>
       </c>
       <c r="AM135" s="8">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="AN135" s="8">
         <v>1097</v>
       </c>
       <c r="AO135" s="8">
-        <v>2733</v>
+        <v>2695</v>
       </c>
       <c r="AP135" s="8">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="AQ135" s="8">
         <v>2113</v>
       </c>
       <c r="AR135" s="8">
-        <v>6795</v>
+        <v>6820</v>
       </c>
       <c r="AS135" s="8">
-        <v>1812</v>
+        <v>1795</v>
       </c>
       <c r="AT135" s="8">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AU135" s="8">
         <v>789</v>
@@ -29288,7 +29590,7 @@
         <v>718</v>
       </c>
       <c r="AW135" s="8">
-        <v>40793</v>
+        <v>40752</v>
       </c>
     </row>
     <row r="136" spans="1:49" x14ac:dyDescent="0.2">
@@ -29344,91 +29646,91 @@
         <v>58297</v>
       </c>
       <c r="R136" s="8">
-        <v>15929</v>
+        <v>16121</v>
       </c>
       <c r="S136" s="8">
-        <v>5290</v>
+        <v>5273</v>
       </c>
       <c r="T136" s="8">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="U136" s="8">
-        <v>3751</v>
+        <v>3756</v>
       </c>
       <c r="V136" s="8">
-        <v>4532</v>
+        <v>4483</v>
       </c>
       <c r="W136" s="8">
-        <v>3303</v>
+        <v>3299</v>
       </c>
       <c r="X136" s="8">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="Y136" s="8">
-        <v>2642</v>
+        <v>2521</v>
       </c>
       <c r="Z136" s="8">
-        <v>2335</v>
+        <v>2296</v>
       </c>
       <c r="AA136" s="8">
         <v>3384</v>
       </c>
       <c r="AB136" s="8">
-        <v>8044</v>
+        <v>8150</v>
       </c>
       <c r="AC136" s="8">
-        <v>1717</v>
+        <v>1627</v>
       </c>
       <c r="AD136" s="8">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AE136" s="8">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AF136" s="8">
         <v>856</v>
       </c>
       <c r="AG136" s="8">
-        <v>54985</v>
+        <v>54975</v>
       </c>
       <c r="AH136" s="8">
-        <v>16750</v>
+        <v>16820</v>
       </c>
       <c r="AI136" s="8">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="AJ136" s="8">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="AK136" s="8">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="AL136" s="8">
-        <v>4644</v>
+        <v>4638</v>
       </c>
       <c r="AM136" s="8">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="AN136" s="8">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AO136" s="8">
-        <v>2700</v>
+        <v>2734</v>
       </c>
       <c r="AP136" s="8">
-        <v>2176</v>
+        <v>2165</v>
       </c>
       <c r="AQ136" s="8">
         <v>2918</v>
       </c>
       <c r="AR136" s="8">
-        <v>7360</v>
+        <v>7377</v>
       </c>
       <c r="AS136" s="8">
-        <v>2315</v>
+        <v>2301</v>
       </c>
       <c r="AT136" s="8">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AU136" s="8">
         <v>746</v>
@@ -29437,7 +29739,7 @@
         <v>692</v>
       </c>
       <c r="AW136" s="8">
-        <v>55056</v>
+        <v>55145</v>
       </c>
     </row>
     <row r="137" spans="1:49" x14ac:dyDescent="0.2">
@@ -29493,91 +29795,91 @@
         <v>54955</v>
       </c>
       <c r="R137" s="8">
-        <v>18294</v>
+        <v>18307</v>
       </c>
       <c r="S137" s="8">
-        <v>5492</v>
+        <v>5487</v>
       </c>
       <c r="T137" s="8">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="U137" s="8">
-        <v>3636</v>
+        <v>3641</v>
       </c>
       <c r="V137" s="8">
-        <v>4882</v>
+        <v>4949</v>
       </c>
       <c r="W137" s="8">
-        <v>3509</v>
+        <v>3495</v>
       </c>
       <c r="X137" s="8">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="Y137" s="8">
-        <v>2765</v>
+        <v>3169</v>
       </c>
       <c r="Z137" s="8">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="AA137" s="8">
         <v>2587</v>
       </c>
       <c r="AB137" s="8">
-        <v>7296</v>
+        <v>7199</v>
       </c>
       <c r="AC137" s="8">
-        <v>3952</v>
+        <v>4054</v>
       </c>
       <c r="AD137" s="8">
         <v>597</v>
       </c>
       <c r="AE137" s="8">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="AF137" s="8">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AG137" s="8">
-        <v>58958</v>
+        <v>59449</v>
       </c>
       <c r="AH137" s="8">
-        <v>16262</v>
+        <v>16296</v>
       </c>
       <c r="AI137" s="8">
-        <v>5398</v>
+        <v>5403</v>
       </c>
       <c r="AJ137" s="8">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AK137" s="8">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="AL137" s="8">
-        <v>4764</v>
+        <v>4776</v>
       </c>
       <c r="AM137" s="8">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="AN137" s="8">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AO137" s="8">
-        <v>2717</v>
+        <v>2834</v>
       </c>
       <c r="AP137" s="8">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="AQ137" s="8">
         <v>2679</v>
       </c>
       <c r="AR137" s="8">
-        <v>7533</v>
+        <v>7498</v>
       </c>
       <c r="AS137" s="8">
-        <v>3007</v>
+        <v>3031</v>
       </c>
       <c r="AT137" s="8">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AU137" s="8">
         <v>723</v>
@@ -29586,7 +29888,7 @@
         <v>673</v>
       </c>
       <c r="AW137" s="8">
-        <v>55814</v>
+        <v>55976</v>
       </c>
     </row>
     <row r="138" spans="1:49" x14ac:dyDescent="0.2">
@@ -29642,100 +29944,100 @@
         <v>50524</v>
       </c>
       <c r="R138" s="8">
-        <v>14048</v>
+        <v>14080</v>
       </c>
       <c r="S138" s="8">
-        <v>5455</v>
+        <v>5482</v>
       </c>
       <c r="T138" s="8">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="U138" s="8">
-        <v>3367</v>
+        <v>3372</v>
       </c>
       <c r="V138" s="8">
-        <v>4898</v>
+        <v>4880</v>
       </c>
       <c r="W138" s="8">
-        <v>3588</v>
+        <v>3605</v>
       </c>
       <c r="X138" s="8">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="Y138" s="8">
-        <v>2645</v>
+        <v>2586</v>
       </c>
       <c r="Z138" s="8">
-        <v>1766</v>
+        <v>1813</v>
       </c>
       <c r="AA138" s="8">
         <v>1934</v>
       </c>
       <c r="AB138" s="8">
-        <v>7904</v>
+        <v>7816</v>
       </c>
       <c r="AC138" s="8">
-        <v>3164</v>
+        <v>3173</v>
       </c>
       <c r="AD138" s="8">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="AE138" s="8">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="AF138" s="8">
         <v>754</v>
       </c>
       <c r="AG138" s="8">
-        <v>53075</v>
+        <v>53022</v>
       </c>
       <c r="AH138" s="8">
-        <v>15446</v>
+        <v>15424</v>
       </c>
       <c r="AI138" s="8">
-        <v>5422</v>
+        <v>5432</v>
       </c>
       <c r="AJ138" s="8">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="AK138" s="8">
         <v>3372</v>
       </c>
       <c r="AL138" s="8">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="AM138" s="8">
-        <v>3522</v>
+        <v>3528</v>
       </c>
       <c r="AN138" s="8">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="AO138" s="8">
-        <v>2782</v>
+        <v>2796</v>
       </c>
       <c r="AP138" s="8">
-        <v>2258</v>
+        <v>2271</v>
       </c>
       <c r="AQ138" s="8">
         <v>3341</v>
       </c>
       <c r="AR138" s="8">
-        <v>7531</v>
+        <v>7510</v>
       </c>
       <c r="AS138" s="8">
-        <v>3455</v>
+        <v>3467</v>
       </c>
       <c r="AT138" s="8">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AU138" s="8">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AV138" s="8">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AW138" s="8">
-        <v>56584</v>
+        <v>56591</v>
       </c>
     </row>
     <row r="139" spans="1:49" x14ac:dyDescent="0.2">
@@ -29791,100 +30093,100 @@
         <v>59200</v>
       </c>
       <c r="R139" s="8">
-        <v>14676</v>
+        <v>14429</v>
       </c>
       <c r="S139" s="8">
-        <v>5260</v>
+        <v>5277</v>
       </c>
       <c r="T139" s="8">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="U139" s="8">
-        <v>2980</v>
+        <v>2966</v>
       </c>
       <c r="V139" s="8">
-        <v>5288</v>
+        <v>5291</v>
       </c>
       <c r="W139" s="8">
-        <v>3530</v>
+        <v>3537</v>
       </c>
       <c r="X139" s="8">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="Y139" s="8">
-        <v>2849</v>
+        <v>2726</v>
       </c>
       <c r="Z139" s="8">
-        <v>2824</v>
+        <v>2819</v>
       </c>
       <c r="AA139" s="8">
         <v>4496</v>
       </c>
       <c r="AB139" s="8">
-        <v>6480</v>
+        <v>6547</v>
       </c>
       <c r="AC139" s="8">
-        <v>3304</v>
+        <v>3299</v>
       </c>
       <c r="AD139" s="8">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="AE139" s="8">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF139" s="8">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AG139" s="8">
-        <v>56519</v>
+        <v>56215</v>
       </c>
       <c r="AH139" s="8">
-        <v>15550</v>
+        <v>15537</v>
       </c>
       <c r="AI139" s="8">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="AJ139" s="8">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AK139" s="8">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="AL139" s="8">
-        <v>5378</v>
+        <v>5369</v>
       </c>
       <c r="AM139" s="8">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="AN139" s="8">
         <v>897</v>
       </c>
       <c r="AO139" s="8">
-        <v>2641</v>
+        <v>2567</v>
       </c>
       <c r="AP139" s="8">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="AQ139" s="8">
         <v>3696</v>
       </c>
       <c r="AR139" s="8">
-        <v>7538</v>
+        <v>7578</v>
       </c>
       <c r="AS139" s="8">
-        <v>3307</v>
+        <v>3288</v>
       </c>
       <c r="AT139" s="8">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AU139" s="8">
         <v>733</v>
       </c>
       <c r="AV139" s="8">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AW139" s="8">
-        <v>57566</v>
+        <v>57485</v>
       </c>
     </row>
     <row r="140" spans="1:49" x14ac:dyDescent="0.2">
@@ -29940,100 +30242,100 @@
         <v>67777</v>
       </c>
       <c r="R140" s="8">
-        <v>17432</v>
+        <v>17759</v>
       </c>
       <c r="S140" s="8">
-        <v>5866</v>
+        <v>5813</v>
       </c>
       <c r="T140" s="8">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="U140" s="8">
-        <v>3403</v>
+        <v>3408</v>
       </c>
       <c r="V140" s="8">
-        <v>5965</v>
+        <v>5906</v>
       </c>
       <c r="W140" s="8">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="X140" s="8">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="Y140" s="8">
-        <v>2594</v>
+        <v>2354</v>
       </c>
       <c r="Z140" s="8">
-        <v>1781</v>
+        <v>1729</v>
       </c>
       <c r="AA140" s="8">
         <v>5626</v>
       </c>
       <c r="AB140" s="8">
-        <v>8913</v>
+        <v>9094</v>
       </c>
       <c r="AC140" s="8">
-        <v>2988</v>
+        <v>2858</v>
       </c>
       <c r="AD140" s="8">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="AE140" s="8">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AF140" s="8">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG140" s="8">
-        <v>63827</v>
+        <v>63821</v>
       </c>
       <c r="AH140" s="8">
-        <v>16475</v>
+        <v>16590</v>
       </c>
       <c r="AI140" s="8">
-        <v>5817</v>
+        <v>5802</v>
       </c>
       <c r="AJ140" s="8">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="AK140" s="8">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="AL140" s="8">
-        <v>5550</v>
+        <v>5542</v>
       </c>
       <c r="AM140" s="8">
-        <v>3764</v>
+        <v>3758</v>
       </c>
       <c r="AN140" s="8">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AO140" s="8">
-        <v>2442</v>
+        <v>2424</v>
       </c>
       <c r="AP140" s="8">
-        <v>2140</v>
+        <v>2126</v>
       </c>
       <c r="AQ140" s="8">
         <v>3085</v>
       </c>
       <c r="AR140" s="8">
-        <v>7729</v>
+        <v>7760</v>
       </c>
       <c r="AS140" s="8">
-        <v>3060</v>
+        <v>3038</v>
       </c>
       <c r="AT140" s="8">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="AU140" s="8">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AV140" s="8">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AW140" s="8">
-        <v>58620</v>
+        <v>58700</v>
       </c>
     </row>
     <row r="141" spans="1:49" x14ac:dyDescent="0.2">
@@ -30089,100 +30391,100 @@
         <v>51235</v>
       </c>
       <c r="R141" s="8">
-        <v>18417</v>
+        <v>18453</v>
       </c>
       <c r="S141" s="8">
-        <v>6310</v>
+        <v>6315</v>
       </c>
       <c r="T141" s="8">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="U141" s="8">
-        <v>3617</v>
+        <v>3624</v>
       </c>
       <c r="V141" s="8">
-        <v>5161</v>
+        <v>5237</v>
       </c>
       <c r="W141" s="8">
-        <v>3974</v>
+        <v>3942</v>
       </c>
       <c r="X141" s="8">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="Y141" s="8">
-        <v>1736</v>
+        <v>2215</v>
       </c>
       <c r="Z141" s="8">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="AA141" s="8">
         <v>-1501</v>
       </c>
       <c r="AB141" s="8">
-        <v>7026</v>
+        <v>6854</v>
       </c>
       <c r="AC141" s="8">
-        <v>3149</v>
+        <v>3282</v>
       </c>
       <c r="AD141" s="8">
         <v>807</v>
       </c>
       <c r="AE141" s="8">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AF141" s="8">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="AG141" s="8">
-        <v>55440</v>
+        <v>56014</v>
       </c>
       <c r="AH141" s="8">
-        <v>17137</v>
+        <v>17205</v>
       </c>
       <c r="AI141" s="8">
-        <v>5993</v>
+        <v>6002</v>
       </c>
       <c r="AJ141" s="8">
-        <v>2124</v>
+        <v>2131</v>
       </c>
       <c r="AK141" s="8">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="AL141" s="8">
-        <v>5480</v>
+        <v>5495</v>
       </c>
       <c r="AM141" s="8">
-        <v>3950</v>
+        <v>3944</v>
       </c>
       <c r="AN141" s="8">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AO141" s="8">
-        <v>2398</v>
+        <v>2507</v>
       </c>
       <c r="AP141" s="8">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="AQ141" s="8">
         <v>3007</v>
       </c>
       <c r="AR141" s="8">
-        <v>7704</v>
+        <v>7651</v>
       </c>
       <c r="AS141" s="8">
-        <v>2845</v>
+        <v>2872</v>
       </c>
       <c r="AT141" s="8">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AU141" s="8">
         <v>840</v>
       </c>
       <c r="AV141" s="8">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AW141" s="8">
-        <v>59651</v>
+        <v>59833</v>
       </c>
     </row>
     <row r="142" spans="1:49" x14ac:dyDescent="0.2">
@@ -30238,100 +30540,100 @@
         <v>57956</v>
       </c>
       <c r="R142" s="8">
-        <v>16539</v>
+        <v>16688</v>
       </c>
       <c r="S142" s="8">
-        <v>5758</v>
+        <v>5797</v>
       </c>
       <c r="T142" s="8">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="U142" s="8">
-        <v>3904</v>
+        <v>3922</v>
       </c>
       <c r="V142" s="8">
-        <v>5416</v>
+        <v>5395</v>
       </c>
       <c r="W142" s="8">
-        <v>4137</v>
+        <v>4161</v>
       </c>
       <c r="X142" s="8">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="Y142" s="8">
-        <v>3109</v>
+        <v>3012</v>
       </c>
       <c r="Z142" s="8">
-        <v>1717</v>
+        <v>1776</v>
       </c>
       <c r="AA142" s="8">
         <v>4164</v>
       </c>
       <c r="AB142" s="8">
-        <v>7552</v>
+        <v>7432</v>
       </c>
       <c r="AC142" s="8">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="AD142" s="8">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="AE142" s="8">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="AF142" s="8">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG142" s="8">
-        <v>60916</v>
+        <v>60925</v>
       </c>
       <c r="AH142" s="8">
-        <v>18375</v>
+        <v>18350</v>
       </c>
       <c r="AI142" s="8">
-        <v>5971</v>
+        <v>5995</v>
       </c>
       <c r="AJ142" s="8">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="AK142" s="8">
-        <v>4103</v>
+        <v>4100</v>
       </c>
       <c r="AL142" s="8">
-        <v>5300</v>
+        <v>5304</v>
       </c>
       <c r="AM142" s="8">
-        <v>4018</v>
+        <v>4025</v>
       </c>
       <c r="AN142" s="8">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="AO142" s="8">
-        <v>2536</v>
+        <v>2489</v>
       </c>
       <c r="AP142" s="8">
-        <v>1770</v>
+        <v>1785</v>
       </c>
       <c r="AQ142" s="8">
         <v>2325</v>
       </c>
       <c r="AR142" s="8">
-        <v>7272</v>
+        <v>7239</v>
       </c>
       <c r="AS142" s="8">
-        <v>3409</v>
+        <v>3426</v>
       </c>
       <c r="AT142" s="8">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="AU142" s="8">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AV142" s="8">
         <v>714</v>
       </c>
       <c r="AW142" s="8">
-        <v>60832</v>
+        <v>60774</v>
       </c>
     </row>
     <row r="143" spans="1:49" x14ac:dyDescent="0.2">
@@ -30387,100 +30689,100 @@
         <v>68046</v>
       </c>
       <c r="R143" s="8">
-        <v>19735</v>
+        <v>19175</v>
       </c>
       <c r="S143" s="8">
-        <v>5747</v>
+        <v>5811</v>
       </c>
       <c r="T143" s="8">
-        <v>2517</v>
+        <v>2492</v>
       </c>
       <c r="U143" s="8">
-        <v>4726</v>
+        <v>4672</v>
       </c>
       <c r="V143" s="8">
-        <v>5096</v>
+        <v>5108</v>
       </c>
       <c r="W143" s="8">
-        <v>3855</v>
+        <v>3869</v>
       </c>
       <c r="X143" s="8">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="Y143" s="8">
-        <v>2556</v>
+        <v>2401</v>
       </c>
       <c r="Z143" s="8">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="AA143" s="8">
         <v>5475</v>
       </c>
       <c r="AB143" s="8">
-        <v>6725</v>
+        <v>6828</v>
       </c>
       <c r="AC143" s="8">
-        <v>3432</v>
+        <v>3441</v>
       </c>
       <c r="AD143" s="8">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="AE143" s="8">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="AF143" s="8">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="AG143" s="8">
-        <v>65199</v>
+        <v>64609</v>
       </c>
       <c r="AH143" s="8">
-        <v>20997</v>
+        <v>20956</v>
       </c>
       <c r="AI143" s="8">
-        <v>5837</v>
+        <v>5841</v>
       </c>
       <c r="AJ143" s="8">
-        <v>2694</v>
+        <v>2685</v>
       </c>
       <c r="AK143" s="8">
-        <v>4471</v>
+        <v>4461</v>
       </c>
       <c r="AL143" s="8">
-        <v>5220</v>
+        <v>5211</v>
       </c>
       <c r="AM143" s="8">
-        <v>3931</v>
+        <v>3938</v>
       </c>
       <c r="AN143" s="8">
         <v>1101</v>
       </c>
       <c r="AO143" s="8">
-        <v>2663</v>
+        <v>2575</v>
       </c>
       <c r="AP143" s="8">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="AQ143" s="8">
         <v>1814</v>
       </c>
       <c r="AR143" s="8">
-        <v>6651</v>
+        <v>6706</v>
       </c>
       <c r="AS143" s="8">
-        <v>4516</v>
+        <v>4495</v>
       </c>
       <c r="AT143" s="8">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="AU143" s="8">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="AV143" s="8">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AW143" s="8">
-        <v>63790</v>
+        <v>63676</v>
       </c>
     </row>
     <row r="144" spans="1:49" x14ac:dyDescent="0.2">
@@ -30536,100 +30838,100 @@
         <v>69800</v>
       </c>
       <c r="R144" s="8">
-        <v>27833</v>
+        <v>28479</v>
       </c>
       <c r="S144" s="8">
-        <v>5963</v>
+        <v>5840</v>
       </c>
       <c r="T144" s="8">
-        <v>2922</v>
+        <v>2914</v>
       </c>
       <c r="U144" s="8">
-        <v>4660</v>
+        <v>4693</v>
       </c>
       <c r="V144" s="8">
-        <v>5344</v>
+        <v>5267</v>
       </c>
       <c r="W144" s="8">
-        <v>3786</v>
+        <v>3788</v>
       </c>
       <c r="X144" s="8">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y144" s="8">
-        <v>2649</v>
+        <v>2246</v>
       </c>
       <c r="Z144" s="8">
-        <v>1517</v>
+        <v>1448</v>
       </c>
       <c r="AA144" s="8">
         <v>-4749</v>
       </c>
       <c r="AB144" s="8">
-        <v>5824</v>
+        <v>6081</v>
       </c>
       <c r="AC144" s="8">
-        <v>7456</v>
+        <v>7287</v>
       </c>
       <c r="AD144" s="8">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AE144" s="8">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AF144" s="8">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG144" s="8">
-        <v>66263</v>
+        <v>66371</v>
       </c>
       <c r="AH144" s="8">
-        <v>24428</v>
+        <v>24666</v>
       </c>
       <c r="AI144" s="8">
-        <v>5794</v>
+        <v>5769</v>
       </c>
       <c r="AJ144" s="8">
-        <v>2554</v>
+        <v>2564</v>
       </c>
       <c r="AK144" s="8">
-        <v>4605</v>
+        <v>4608</v>
       </c>
       <c r="AL144" s="8">
-        <v>5220</v>
+        <v>5209</v>
       </c>
       <c r="AM144" s="8">
-        <v>3807</v>
+        <v>3801</v>
       </c>
       <c r="AN144" s="8">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="AO144" s="8">
-        <v>2707</v>
+        <v>2823</v>
       </c>
       <c r="AP144" s="8">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="AQ144" s="8">
         <v>1761</v>
       </c>
       <c r="AR144" s="8">
-        <v>6242</v>
+        <v>6288</v>
       </c>
       <c r="AS144" s="8">
-        <v>5092</v>
+        <v>5063</v>
       </c>
       <c r="AT144" s="8">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="AU144" s="8">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AV144" s="8">
         <v>726</v>
       </c>
       <c r="AW144" s="8">
-        <v>67087</v>
+        <v>67420</v>
       </c>
     </row>
     <row r="145" spans="1:49" x14ac:dyDescent="0.2">
@@ -30685,100 +30987,100 @@
         <v>65167</v>
       </c>
       <c r="R145" s="8">
-        <v>24696</v>
+        <v>24779</v>
       </c>
       <c r="S145" s="8">
-        <v>5639</v>
+        <v>5662</v>
       </c>
       <c r="T145" s="8">
-        <v>2371</v>
+        <v>2440</v>
       </c>
       <c r="U145" s="8">
-        <v>4363</v>
+        <v>4360</v>
       </c>
       <c r="V145" s="8">
-        <v>5126</v>
+        <v>5214</v>
       </c>
       <c r="W145" s="8">
-        <v>3783</v>
+        <v>3731</v>
       </c>
       <c r="X145" s="8">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="Y145" s="8">
-        <v>2510</v>
+        <v>3736</v>
       </c>
       <c r="Z145" s="8">
-        <v>1244</v>
+        <v>1269</v>
       </c>
       <c r="AA145" s="8">
         <v>5921</v>
       </c>
       <c r="AB145" s="8">
-        <v>6266</v>
+        <v>6007</v>
       </c>
       <c r="AC145" s="8">
-        <v>3431</v>
+        <v>3591</v>
       </c>
       <c r="AD145" s="8">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AE145" s="8">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="AF145" s="8">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="AG145" s="8">
-        <v>69037</v>
+        <v>70410</v>
       </c>
       <c r="AH145" s="8">
-        <v>27040</v>
+        <v>27254</v>
       </c>
       <c r="AI145" s="8">
-        <v>5727</v>
+        <v>5736</v>
       </c>
       <c r="AJ145" s="8">
-        <v>2057</v>
+        <v>2079</v>
       </c>
       <c r="AK145" s="8">
-        <v>4539</v>
+        <v>4545</v>
       </c>
       <c r="AL145" s="8">
-        <v>5138</v>
+        <v>5153</v>
       </c>
       <c r="AM145" s="8">
-        <v>3763</v>
+        <v>3751</v>
       </c>
       <c r="AN145" s="8">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="AO145" s="8">
-        <v>2660</v>
+        <v>3022</v>
       </c>
       <c r="AP145" s="8">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="AQ145" s="8">
         <v>2150</v>
       </c>
       <c r="AR145" s="8">
-        <v>5826</v>
+        <v>5757</v>
       </c>
       <c r="AS145" s="8">
-        <v>4590</v>
+        <v>4621</v>
       </c>
       <c r="AT145" s="8">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="AU145" s="8">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AV145" s="8">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AW145" s="8">
-        <v>68361</v>
+        <v>68944</v>
       </c>
     </row>
     <row r="146" spans="1:49" x14ac:dyDescent="0.2">
@@ -30834,52 +31136,52 @@
         <v>65126</v>
       </c>
       <c r="R146" s="8">
-        <v>28701</v>
+        <v>29240</v>
       </c>
       <c r="S146" s="8">
-        <v>5678</v>
+        <v>5736</v>
       </c>
       <c r="T146" s="8">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="U146" s="8">
-        <v>4487</v>
+        <v>4515</v>
       </c>
       <c r="V146" s="8">
-        <v>5047</v>
+        <v>5024</v>
       </c>
       <c r="W146" s="8">
-        <v>3786</v>
+        <v>3818</v>
       </c>
       <c r="X146" s="8">
-        <v>1232</v>
+        <v>1203</v>
       </c>
       <c r="Y146" s="8">
-        <v>3057</v>
+        <v>2913</v>
       </c>
       <c r="Z146" s="8">
-        <v>1016</v>
+        <v>1077</v>
       </c>
       <c r="AA146" s="8">
         <v>3450</v>
       </c>
       <c r="AB146" s="8">
-        <v>5267</v>
+        <v>5124</v>
       </c>
       <c r="AC146" s="8">
-        <v>3357</v>
+        <v>3364</v>
       </c>
       <c r="AD146" s="8">
-        <v>1035</v>
+        <v>985</v>
       </c>
       <c r="AE146" s="8">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="AF146" s="8">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AG146" s="8">
-        <v>68532</v>
+        <v>68882</v>
       </c>
       <c r="AH146" s="8"/>
       <c r="AI146" s="8"/>
@@ -30951,52 +31253,52 @@
         <v>71821</v>
       </c>
       <c r="R147" s="8">
-        <v>28611</v>
+        <v>27369</v>
       </c>
       <c r="S147" s="8">
-        <v>5297</v>
+        <v>5399</v>
       </c>
       <c r="T147" s="8">
-        <v>2525</v>
+        <v>2486</v>
       </c>
       <c r="U147" s="8">
-        <v>4561</v>
+        <v>4493</v>
       </c>
       <c r="V147" s="8">
-        <v>5086</v>
+        <v>5103</v>
       </c>
       <c r="W147" s="8">
-        <v>3920</v>
+        <v>3935</v>
       </c>
       <c r="X147" s="8">
-        <v>1219</v>
+        <v>1230</v>
       </c>
       <c r="Y147" s="8">
-        <v>2276</v>
+        <v>2105</v>
       </c>
       <c r="Z147" s="8">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="AA147" s="8">
         <v>2758</v>
       </c>
       <c r="AB147" s="8">
-        <v>5399</v>
+        <v>5551</v>
       </c>
       <c r="AC147" s="8">
-        <v>3265</v>
+        <v>3281</v>
       </c>
       <c r="AD147" s="8">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="AE147" s="8">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="AF147" s="8">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AG147" s="8">
-        <v>68536</v>
+        <v>67319</v>
       </c>
       <c r="AH147" s="8"/>
       <c r="AI147" s="8"/>
@@ -31068,52 +31370,52 @@
         <v>72072</v>
       </c>
       <c r="R148" s="8">
-        <v>27613</v>
+        <v>28530</v>
       </c>
       <c r="S148" s="8">
-        <v>5606</v>
+        <v>5422</v>
       </c>
       <c r="T148" s="8">
-        <v>2456</v>
+        <v>2435</v>
       </c>
       <c r="U148" s="8">
-        <v>4490</v>
+        <v>4540</v>
       </c>
       <c r="V148" s="8">
-        <v>5257</v>
+        <v>5168</v>
       </c>
       <c r="W148" s="8">
-        <v>4014</v>
+        <v>4025</v>
       </c>
       <c r="X148" s="8">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="Y148" s="8">
-        <v>2603</v>
+        <v>2081</v>
       </c>
       <c r="Z148" s="8">
-        <v>1400</v>
+        <v>1315</v>
       </c>
       <c r="AA148" s="8">
         <v>2572</v>
       </c>
       <c r="AB148" s="8">
-        <v>4857</v>
+        <v>5154</v>
       </c>
       <c r="AC148" s="8">
-        <v>3680</v>
+        <v>3478</v>
       </c>
       <c r="AD148" s="8">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="AE148" s="8">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AF148" s="8">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG148" s="8">
-        <v>67932</v>
+        <v>68135</v>
       </c>
       <c r="AH148" s="8"/>
       <c r="AI148" s="8"/>
@@ -31185,52 +31487,52 @@
         <v>54901</v>
       </c>
       <c r="R149" s="8">
-        <v>27344</v>
+        <v>27376</v>
       </c>
       <c r="S149" s="8">
-        <v>4544</v>
+        <v>4580</v>
       </c>
       <c r="T149" s="8">
-        <v>2441</v>
+        <v>2564</v>
       </c>
       <c r="U149" s="8">
-        <v>4827</v>
+        <v>4810</v>
       </c>
       <c r="V149" s="8">
-        <v>4496</v>
+        <v>4596</v>
       </c>
       <c r="W149" s="8">
-        <v>4123</v>
+        <v>4046</v>
       </c>
       <c r="X149" s="8">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="Y149" s="8">
-        <v>771</v>
+        <v>1322</v>
       </c>
       <c r="Z149" s="8">
-        <v>1271</v>
+        <v>1317</v>
       </c>
       <c r="AA149" s="8">
         <v>237</v>
       </c>
       <c r="AB149" s="8">
-        <v>3674</v>
+        <v>3347</v>
       </c>
       <c r="AC149" s="8">
-        <v>2402</v>
+        <v>2586</v>
       </c>
       <c r="AD149" s="8">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AE149" s="8">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AF149" s="8">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AG149" s="8">
-        <v>59036</v>
+        <v>59702</v>
       </c>
       <c r="AH149" s="8"/>
       <c r="AI149" s="8"/>
@@ -31302,52 +31604,52 @@
         <v>58397</v>
       </c>
       <c r="R150" s="8">
-        <v>24212</v>
+        <v>24821</v>
       </c>
       <c r="S150" s="8">
-        <v>6311</v>
+        <v>6394</v>
       </c>
       <c r="T150" s="8">
-        <v>2488</v>
+        <v>2445</v>
       </c>
       <c r="U150" s="8">
-        <v>6342</v>
+        <v>6389</v>
       </c>
       <c r="V150" s="8">
-        <v>6443</v>
+        <v>6414</v>
       </c>
       <c r="W150" s="8">
-        <v>6137</v>
+        <v>6189</v>
       </c>
       <c r="X150" s="8">
-        <v>1211</v>
+        <v>1177</v>
       </c>
       <c r="Y150" s="8">
-        <v>2135</v>
+        <v>2048</v>
       </c>
       <c r="Z150" s="8">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="AA150" s="8">
         <v>1425</v>
       </c>
       <c r="AB150" s="8">
-        <v>-4655</v>
+        <v>-4808</v>
       </c>
       <c r="AC150" s="8">
-        <v>5761</v>
+        <v>5766</v>
       </c>
       <c r="AD150" s="8">
-        <v>762</v>
+        <v>696</v>
       </c>
       <c r="AE150" s="8">
-        <v>802</v>
+        <v>829</v>
       </c>
       <c r="AF150" s="8">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="AG150" s="8">
-        <v>61790</v>
+        <v>62264</v>
       </c>
       <c r="AH150" s="8"/>
       <c r="AI150" s="8"/>
@@ -31419,52 +31721,52 @@
         <v>78679</v>
       </c>
       <c r="R151" s="8">
-        <v>19371</v>
+        <v>18397</v>
       </c>
       <c r="S151" s="8">
-        <v>7550</v>
+        <v>7748</v>
       </c>
       <c r="T151" s="8">
-        <v>2351</v>
+        <v>2304</v>
       </c>
       <c r="U151" s="8">
-        <v>6245</v>
+        <v>6131</v>
       </c>
       <c r="V151" s="8">
-        <v>7539</v>
+        <v>7561</v>
       </c>
       <c r="W151" s="8">
-        <v>7766</v>
+        <v>7804</v>
       </c>
       <c r="X151" s="8">
-        <v>3367</v>
+        <v>3381</v>
       </c>
       <c r="Y151" s="8">
-        <v>2454</v>
+        <v>2235</v>
       </c>
       <c r="Z151" s="8">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="AA151" s="8">
         <v>828</v>
       </c>
       <c r="AB151" s="8">
-        <v>5204</v>
+        <v>5394</v>
       </c>
       <c r="AC151" s="8">
-        <v>6546</v>
+        <v>6572</v>
       </c>
       <c r="AD151" s="8">
-        <v>1625</v>
+        <v>1667</v>
       </c>
       <c r="AE151" s="8">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="AF151" s="8">
-        <v>2635</v>
+        <v>2626</v>
       </c>
       <c r="AG151" s="8">
-        <v>76498</v>
+        <v>75621</v>
       </c>
       <c r="AH151" s="8"/>
       <c r="AI151" s="8"/>
@@ -31536,52 +31838,52 @@
         <v>86386</v>
       </c>
       <c r="R152" s="8">
-        <v>30257</v>
+        <v>31401</v>
       </c>
       <c r="S152" s="8">
-        <v>6441</v>
+        <v>6163</v>
       </c>
       <c r="T152" s="8">
-        <v>1927</v>
+        <v>1898</v>
       </c>
       <c r="U152" s="8">
-        <v>5672</v>
+        <v>5767</v>
       </c>
       <c r="V152" s="8">
-        <v>8215</v>
+        <v>8115</v>
       </c>
       <c r="W152" s="8">
-        <v>6094</v>
+        <v>6125</v>
       </c>
       <c r="X152" s="8">
-        <v>2294</v>
+        <v>2299</v>
       </c>
       <c r="Y152" s="8">
-        <v>2560</v>
+        <v>1948</v>
       </c>
       <c r="Z152" s="8">
-        <v>1790</v>
+        <v>1695</v>
       </c>
       <c r="AA152" s="8">
         <v>2572</v>
       </c>
       <c r="AB152" s="8">
-        <v>3204</v>
+        <v>3516</v>
       </c>
       <c r="AC152" s="8">
-        <v>5774</v>
+        <v>5543</v>
       </c>
       <c r="AD152" s="8">
-        <v>1223</v>
+        <v>1258</v>
       </c>
       <c r="AE152" s="8">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF152" s="8">
         <v>2096</v>
       </c>
       <c r="AG152" s="8">
-        <v>81289</v>
+        <v>81563</v>
       </c>
       <c r="AH152" s="8"/>
       <c r="AI152" s="8"/>
@@ -31653,52 +31955,52 @@
         <v>70915</v>
       </c>
       <c r="R153" s="8">
-        <v>33695</v>
+        <v>33655</v>
       </c>
       <c r="S153" s="8">
-        <v>6461</v>
+        <v>6527</v>
       </c>
       <c r="T153" s="8">
-        <v>1965</v>
+        <v>2110</v>
       </c>
       <c r="U153" s="8">
-        <v>6867</v>
+        <v>6810</v>
       </c>
       <c r="V153" s="8">
-        <v>6924</v>
+        <v>7036</v>
       </c>
       <c r="W153" s="8">
-        <v>4146</v>
+        <v>4044</v>
       </c>
       <c r="X153" s="8">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="Y153" s="8">
-        <v>446</v>
+        <v>864</v>
       </c>
       <c r="Z153" s="8">
-        <v>1087</v>
+        <v>1158</v>
       </c>
       <c r="AA153" s="8">
         <v>400</v>
       </c>
       <c r="AB153" s="8">
-        <v>6800</v>
+        <v>6443</v>
       </c>
       <c r="AC153" s="8">
-        <v>4208</v>
+        <v>4406</v>
       </c>
       <c r="AD153" s="8">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AE153" s="8">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AF153" s="8">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AG153" s="8">
-        <v>75967</v>
+        <v>76428</v>
       </c>
       <c r="AH153" s="8"/>
       <c r="AI153" s="8"/>
@@ -31770,52 +32072,52 @@
         <v>90350</v>
       </c>
       <c r="R154" s="8">
-        <v>45802</v>
+        <v>47309</v>
       </c>
       <c r="S154" s="8">
-        <v>6793</v>
+        <v>6920</v>
       </c>
       <c r="T154" s="8">
-        <v>2322</v>
+        <v>2258</v>
       </c>
       <c r="U154" s="8">
-        <v>5373</v>
+        <v>5406</v>
       </c>
       <c r="V154" s="8">
-        <v>7314</v>
+        <v>7281</v>
       </c>
       <c r="W154" s="8">
-        <v>4030</v>
+        <v>4075</v>
       </c>
       <c r="X154" s="8">
-        <v>876</v>
+        <v>838</v>
       </c>
       <c r="Y154" s="8">
-        <v>1482</v>
+        <v>1445</v>
       </c>
       <c r="Z154" s="8">
-        <v>1267</v>
+        <v>1310</v>
       </c>
       <c r="AA154" s="8">
         <v>2653</v>
       </c>
       <c r="AB154" s="8">
-        <v>7239</v>
+        <v>7076</v>
       </c>
       <c r="AC154" s="8">
-        <v>4710</v>
+        <v>4724</v>
       </c>
       <c r="AD154" s="8">
-        <v>1197</v>
+        <v>1121</v>
       </c>
       <c r="AE154" s="8">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="AF154" s="8">
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="AG154" s="8">
-        <v>92884</v>
+        <v>94282</v>
       </c>
       <c r="AH154" s="8"/>
       <c r="AI154" s="8"/>
@@ -31887,52 +32189,52 @@
         <v>97103</v>
       </c>
       <c r="R155" s="8">
-        <v>48119</v>
+        <v>45286</v>
       </c>
       <c r="S155" s="8">
-        <v>7556</v>
+        <v>7758</v>
       </c>
       <c r="T155" s="8">
-        <v>1903</v>
+        <v>1858</v>
       </c>
       <c r="U155" s="8">
-        <v>6011</v>
+        <v>5907</v>
       </c>
       <c r="V155" s="8">
-        <v>7483</v>
+        <v>7514</v>
       </c>
       <c r="W155" s="8">
-        <v>3719</v>
+        <v>3729</v>
       </c>
       <c r="X155" s="8">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="Y155" s="8">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="Z155" s="8">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="AA155" s="8">
         <v>1156</v>
       </c>
       <c r="AB155" s="8">
-        <v>5597</v>
+        <v>5821</v>
       </c>
       <c r="AC155" s="8">
-        <v>4699</v>
+        <v>4732</v>
       </c>
       <c r="AD155" s="8">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="AE155" s="8">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="AF155" s="8">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="AG155" s="8">
-        <v>91677</v>
+        <v>89145</v>
       </c>
       <c r="AH155" s="8"/>
       <c r="AI155" s="8"/>
@@ -31956,100 +32258,100 @@
         <v>44531</v>
       </c>
       <c r="B156" s="8">
-        <v>38154</v>
+        <v>37286</v>
       </c>
       <c r="C156" s="8">
-        <v>11489</v>
+        <v>11266</v>
       </c>
       <c r="D156" s="8">
-        <v>1693</v>
+        <v>1585</v>
       </c>
       <c r="E156" s="8">
-        <v>6543</v>
+        <v>6632</v>
       </c>
       <c r="F156" s="8">
-        <v>8921</v>
+        <v>8908</v>
       </c>
       <c r="G156" s="8">
-        <v>5616</v>
+        <v>5517</v>
       </c>
       <c r="H156" s="8">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="I156" s="8">
-        <v>3060</v>
+        <v>3035</v>
       </c>
       <c r="J156" s="8">
-        <v>1940</v>
+        <v>1947</v>
       </c>
       <c r="K156" s="8">
-        <v>3512</v>
+        <v>3549</v>
       </c>
       <c r="L156" s="8">
-        <v>9962</v>
+        <v>10498</v>
       </c>
       <c r="M156" s="8">
-        <v>6660</v>
+        <v>6729</v>
       </c>
       <c r="N156" s="8">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="O156" s="8">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="P156" s="8">
-        <v>1651</v>
+        <v>1528</v>
       </c>
       <c r="Q156" s="8">
-        <v>101205</v>
+        <v>100478</v>
       </c>
       <c r="R156" s="8">
-        <v>43219</v>
+        <v>44075</v>
       </c>
       <c r="S156" s="8">
-        <v>10179</v>
+        <v>9499</v>
       </c>
       <c r="T156" s="8">
-        <v>2074</v>
+        <v>1909</v>
       </c>
       <c r="U156" s="8">
-        <v>5673</v>
+        <v>5847</v>
       </c>
       <c r="V156" s="8">
-        <v>8337</v>
+        <v>8212</v>
       </c>
       <c r="W156" s="8">
-        <v>3767</v>
+        <v>3728</v>
       </c>
       <c r="X156" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Y156" s="8">
-        <v>2509</v>
+        <v>1843</v>
       </c>
       <c r="Z156" s="8">
-        <v>1661</v>
+        <v>1563</v>
       </c>
       <c r="AA156" s="8">
-        <v>3512</v>
+        <v>3549</v>
       </c>
       <c r="AB156" s="8">
-        <v>7915</v>
+        <v>8761</v>
       </c>
       <c r="AC156" s="8">
-        <v>6294</v>
+        <v>6102</v>
       </c>
       <c r="AD156" s="8">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="AE156" s="8">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AF156" s="8">
-        <v>1708</v>
+        <v>1588</v>
       </c>
       <c r="AG156" s="8">
-        <v>98620</v>
+        <v>98481</v>
       </c>
       <c r="AH156" s="8"/>
       <c r="AI156" s="8"/>
@@ -32067,6 +32369,123 @@
       <c r="AU156" s="8"/>
       <c r="AV156" s="8"/>
       <c r="AW156" s="8"/>
+    </row>
+    <row r="157" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B157" s="8">
+        <v>54575</v>
+      </c>
+      <c r="C157" s="8">
+        <v>7005</v>
+      </c>
+      <c r="D157" s="8">
+        <v>768</v>
+      </c>
+      <c r="E157" s="8">
+        <v>5169</v>
+      </c>
+      <c r="F157" s="8">
+        <v>7506</v>
+      </c>
+      <c r="G157" s="8">
+        <v>3747</v>
+      </c>
+      <c r="H157" s="8">
+        <v>32</v>
+      </c>
+      <c r="I157" s="8">
+        <v>2056</v>
+      </c>
+      <c r="J157" s="8">
+        <v>1650</v>
+      </c>
+      <c r="K157" s="8">
+        <v>172</v>
+      </c>
+      <c r="L157" s="8">
+        <v>5816</v>
+      </c>
+      <c r="M157" s="8">
+        <v>2635</v>
+      </c>
+      <c r="N157" s="8">
+        <v>672</v>
+      </c>
+      <c r="O157" s="8">
+        <v>529</v>
+      </c>
+      <c r="P157" s="8">
+        <v>1433</v>
+      </c>
+      <c r="Q157" s="8">
+        <v>93764</v>
+      </c>
+      <c r="R157" s="8">
+        <v>53200</v>
+      </c>
+      <c r="S157" s="8">
+        <v>8303</v>
+      </c>
+      <c r="T157" s="8">
+        <v>856</v>
+      </c>
+      <c r="U157" s="8">
+        <v>6486</v>
+      </c>
+      <c r="V157" s="8">
+        <v>8127</v>
+      </c>
+      <c r="W157" s="8">
+        <v>4429</v>
+      </c>
+      <c r="X157" s="8">
+        <v>112</v>
+      </c>
+      <c r="Y157" s="8">
+        <v>3931</v>
+      </c>
+      <c r="Z157" s="8">
+        <v>1785</v>
+      </c>
+      <c r="AA157" s="8">
+        <v>172</v>
+      </c>
+      <c r="AB157" s="8">
+        <v>7169</v>
+      </c>
+      <c r="AC157" s="8">
+        <v>3428</v>
+      </c>
+      <c r="AD157" s="8">
+        <v>626</v>
+      </c>
+      <c r="AE157" s="8">
+        <v>591</v>
+      </c>
+      <c r="AF157" s="8">
+        <v>1407</v>
+      </c>
+      <c r="AG157" s="8">
+        <v>100620</v>
+      </c>
+      <c r="AH157" s="8"/>
+      <c r="AI157" s="8"/>
+      <c r="AJ157" s="8"/>
+      <c r="AK157" s="8"/>
+      <c r="AL157" s="8"/>
+      <c r="AM157" s="8"/>
+      <c r="AN157" s="8"/>
+      <c r="AO157" s="8"/>
+      <c r="AP157" s="8"/>
+      <c r="AQ157" s="8"/>
+      <c r="AR157" s="8"/>
+      <c r="AS157" s="8"/>
+      <c r="AT157" s="8"/>
+      <c r="AU157" s="8"/>
+      <c r="AV157" s="8"/>
+      <c r="AW157" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
